--- a/lab5/LR5_Andreev_V.A._P3119.xlsx
+++ b/lab5/LR5_Andreev_V.A._P3119.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m.n./Desktop/ITMO/Информатика/Lab5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m.n./Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC40E8F-DD9C-3C47-AB11-36210F6BED59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8909301F-B68E-C048-8013-5776BD5A7669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{98388672-4B47-FC48-A9E9-2496D03EC868}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{98388672-4B47-FC48-A9E9-2496D03EC868}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист2" sheetId="2" r:id="rId1"/>
@@ -358,9 +358,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -372,6 +369,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -379,39 +379,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -725,7 +693,7 @@
   <dimension ref="A1:AG81"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="67" zoomScaleNormal="43" zoomScalePageLayoutView="67" workbookViewId="0">
-      <selection activeCell="AD13" sqref="AD13"/>
+      <selection activeCell="AB11" sqref="AB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -738,620 +706,620 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
-      <c r="A1" s="12"/>
-      <c r="B1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="12">
-        <v>5567</v>
-      </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AC1" s="12"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="11">
+        <v>16081</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AC1" s="11"/>
     </row>
     <row r="2" spans="1:29">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="13">
-        <v>26281</v>
-      </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AC2" s="12"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12">
+        <v>16487</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AC2" s="11"/>
     </row>
     <row r="3" spans="1:29">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
-      <c r="AC3" s="12"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AC3" s="11"/>
     </row>
     <row r="4" spans="1:29">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="12">
+      <c r="B4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="11">
         <f>C1</f>
-        <v>5567</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12" t="s">
+        <v>16081</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="12"/>
+      <c r="F4" s="11"/>
       <c r="G4" s="3">
-        <f>MOD(QUOTIENT(C4,32768),2)</f>
+        <f t="shared" ref="G4:G9" si="0">MOD(QUOTIENT(C4,32768),2)</f>
         <v>0</v>
       </c>
       <c r="H4" s="3">
-        <f>MOD(QUOTIENT(C4,16384),2)</f>
+        <f t="shared" ref="H4:H9" si="1">MOD(QUOTIENT(C4,16384),2)</f>
         <v>0</v>
       </c>
       <c r="I4" s="3">
-        <f>MOD(QUOTIENT(C4,8192),2)</f>
-        <v>0</v>
+        <f t="shared" ref="I4:I9" si="2">MOD(QUOTIENT(C4,8192),2)</f>
+        <v>1</v>
       </c>
       <c r="J4" s="3">
-        <f>MOD(QUOTIENT(C4,4096),2)</f>
+        <f t="shared" ref="J4:J9" si="3">MOD(QUOTIENT(C4,4096),2)</f>
         <v>1</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="L4" s="3">
-        <f>MOD(QUOTIENT(C4,2048),2)</f>
-        <v>0</v>
+        <f t="shared" ref="L4:L9" si="4">MOD(QUOTIENT(C4,2048),2)</f>
+        <v>1</v>
       </c>
       <c r="M4" s="3">
-        <f>MOD(QUOTIENT(C4,1024),2)</f>
+        <f t="shared" ref="M4:M9" si="5">MOD(QUOTIENT(C4,1024),2)</f>
         <v>1</v>
       </c>
       <c r="N4" s="3">
-        <f>MOD(QUOTIENT(C4,512),2)</f>
-        <v>0</v>
+        <f t="shared" ref="N4:N9" si="6">MOD(QUOTIENT(C4,512),2)</f>
+        <v>1</v>
       </c>
       <c r="O4" s="3">
-        <f>MOD(QUOTIENT(C4,256),2)</f>
-        <v>1</v>
+        <f t="shared" ref="O4:O9" si="7">MOD(QUOTIENT(C4,256),2)</f>
+        <v>0</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="Q4" s="3">
-        <f>MOD(QUOTIENT(C4,128),2)</f>
+        <f t="shared" ref="Q4:Q9" si="8">MOD(QUOTIENT(C4,128),2)</f>
         <v>1</v>
       </c>
       <c r="R4" s="3">
-        <f>MOD(QUOTIENT(C4,64),2)</f>
-        <v>0</v>
+        <f t="shared" ref="R4:R9" si="9">MOD(QUOTIENT(C4,64),2)</f>
+        <v>1</v>
       </c>
       <c r="S4" s="3">
-        <f>MOD(QUOTIENT(C4,32),2)</f>
-        <v>1</v>
+        <f t="shared" ref="S4:S9" si="10">MOD(QUOTIENT(C4,32),2)</f>
+        <v>0</v>
       </c>
       <c r="T4" s="3">
-        <f>MOD(QUOTIENT(C4,16),2)</f>
+        <f t="shared" ref="T4:T9" si="11">MOD(QUOTIENT(C4,16),2)</f>
         <v>1</v>
       </c>
       <c r="U4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="V4" s="3">
-        <f>MOD(QUOTIENT(C4,8),2)</f>
-        <v>1</v>
+        <f t="shared" ref="V4:V9" si="12">MOD(QUOTIENT(C4,8),2)</f>
+        <v>0</v>
       </c>
       <c r="W4" s="3">
-        <f>MOD(QUOTIENT(C4,4),2)</f>
-        <v>1</v>
+        <f t="shared" ref="W4:W9" si="13">MOD(QUOTIENT(C4,4),2)</f>
+        <v>0</v>
       </c>
       <c r="X4" s="3">
-        <f>MOD(QUOTIENT(C4,2),2)</f>
-        <v>1</v>
+        <f t="shared" ref="X4:X9" si="14">MOD(QUOTIENT(C4,2),2)</f>
+        <v>0</v>
       </c>
       <c r="Y4" s="3">
-        <f>MOD(C4,2)</f>
-        <v>1</v>
-      </c>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
-      <c r="AC4" s="12"/>
+        <f t="shared" ref="Y4:Y9" si="15">MOD(C4,2)</f>
+        <v>1</v>
+      </c>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AC4" s="11"/>
     </row>
     <row r="5" spans="1:29">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="12">
+      <c r="B5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11">
         <f>C2</f>
-        <v>26281</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12" t="s">
+        <v>16487</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="12"/>
+      <c r="F5" s="11"/>
       <c r="G5" s="3">
-        <f>MOD(QUOTIENT(C5,32768),2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H5" s="3">
-        <f>MOD(QUOTIENT(C5,16384),2)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I5" s="3">
-        <f>MOD(QUOTIENT(C5,8192),2)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J5" s="3">
-        <f>MOD(QUOTIENT(C5,4096),2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="L5" s="3">
-        <f>MOD(QUOTIENT(C5,2048),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M5" s="3">
-        <f>MOD(QUOTIENT(C5,1024),2)</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="N5" s="3">
-        <f>MOD(QUOTIENT(C5,512),2)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="O5" s="3">
-        <f>MOD(QUOTIENT(C5,256),2)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="Q5" s="3">
-        <f>MOD(QUOTIENT(C5,128),2)</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="R5" s="3">
-        <f>MOD(QUOTIENT(C5,64),2)</f>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="S5" s="3">
-        <f>MOD(QUOTIENT(C5,32),2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="T5" s="3">
-        <f>MOD(QUOTIENT(C5,16),2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="V5" s="3">
-        <f>MOD(QUOTIENT(C5,8),2)</f>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="W5" s="3">
-        <f>MOD(QUOTIENT(C5,4),2)</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="X5" s="8">
-        <f>MOD(QUOTIENT(C5,2),2)</f>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="Y5" s="3">
-        <f>MOD(C5,2)</f>
-        <v>1</v>
-      </c>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AC5" s="12"/>
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AC5" s="11"/>
     </row>
     <row r="6" spans="1:29">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <f>C1+C2</f>
-        <v>31848</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12" t="s">
+        <v>32568</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="12"/>
+      <c r="F6" s="11"/>
       <c r="G6" s="3">
-        <f>MOD(QUOTIENT(C6,32768),2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H6" s="3">
-        <f>MOD(QUOTIENT(C6,16384),2)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I6" s="3">
-        <f>MOD(QUOTIENT(C6,8192),2)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J6" s="3">
-        <f>MOD(QUOTIENT(C6,4096),2)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>25</v>
       </c>
       <c r="L6" s="3">
-        <f>MOD(QUOTIENT(C6,2048),2)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="M6" s="3">
-        <f>MOD(QUOTIENT(C6,1024),2)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N6" s="3">
-        <f>MOD(QUOTIENT(C6,512),2)</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="O6" s="3">
-        <f>MOD(QUOTIENT(C6,256),2)</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="P6" s="3" t="s">
         <v>25</v>
       </c>
       <c r="Q6" s="3">
-        <f>MOD(QUOTIENT(C6,128),2)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R6" s="3">
-        <f>MOD(QUOTIENT(C6,64),2)</f>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="S6" s="3">
-        <f>MOD(QUOTIENT(C6,32),2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="T6" s="3">
-        <f>MOD(QUOTIENT(C6,16),2)</f>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U6" s="3" t="s">
         <v>25</v>
       </c>
       <c r="V6" s="3">
-        <f>MOD(QUOTIENT(C6,8),2)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W6" s="3">
-        <f>MOD(QUOTIENT(C6,4),2)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X6" s="3">
-        <f>MOD(QUOTIENT(C6,2),2)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Y6" s="3">
-        <f>MOD(C6,2)</f>
-        <v>0</v>
-      </c>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
-      <c r="AC6" s="12"/>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AC6" s="11"/>
     </row>
     <row r="7" spans="1:29">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <f>C1+C2+C2</f>
-        <v>58129</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12" t="s">
+        <v>49055</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="12"/>
+      <c r="F7" s="11"/>
       <c r="G7" s="3">
-        <f>MOD(QUOTIENT(C7,32768),2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H7" s="3">
-        <f>MOD(QUOTIENT(C7,16384),2)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="I7" s="3">
-        <f>MOD(QUOTIENT(C7,8192),2)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J7" s="3">
-        <f>MOD(QUOTIENT(C7,4096),2)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>25</v>
       </c>
       <c r="L7" s="3">
-        <f>MOD(QUOTIENT(C7,2048),2)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="M7" s="3">
-        <f>MOD(QUOTIENT(C7,1024),2)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="N7" s="3">
-        <f>MOD(QUOTIENT(C7,512),2)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O7" s="3">
-        <f>MOD(QUOTIENT(C7,256),2)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>25</v>
       </c>
       <c r="Q7" s="3">
-        <f>MOD(QUOTIENT(C7,128),2)</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="R7" s="3">
-        <f>MOD(QUOTIENT(C7,64),2)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S7" s="3">
-        <f>MOD(QUOTIENT(C7,32),2)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T7" s="3">
-        <f>MOD(QUOTIENT(C7,16),2)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U7" s="3" t="s">
         <v>25</v>
       </c>
       <c r="V7" s="3">
-        <f>MOD(QUOTIENT(C7,8),2)</f>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="W7" s="3">
-        <f>MOD(QUOTIENT(C7,4),2)</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="X7" s="3">
-        <f>MOD(QUOTIENT(C7,2),2)</f>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="Y7" s="3">
-        <f>MOD(C7,2)</f>
-        <v>1</v>
-      </c>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
-      <c r="AC7" s="12"/>
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AC7" s="11"/>
     </row>
     <row r="8" spans="1:29">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <f>C2-C1</f>
-        <v>20714</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="12"/>
+      <c r="F8" s="11"/>
       <c r="G8" s="3">
-        <f>MOD(QUOTIENT(C8,32768),2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H8" s="3">
-        <f>MOD(QUOTIENT(C8,16384),2)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
-        <f>MOD(QUOTIENT(C8,8192),2)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J8" s="3">
-        <f>MOD(QUOTIENT(C8,4096),2)</f>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>25</v>
       </c>
       <c r="L8" s="3">
-        <f>MOD(QUOTIENT(C8,2048),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M8" s="3">
-        <f>MOD(QUOTIENT(C8,1024),2)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N8" s="3">
-        <f>MOD(QUOTIENT(C8,512),2)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O8" s="3">
-        <f>MOD(QUOTIENT(C8,256),2)</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>25</v>
       </c>
       <c r="Q8" s="3">
-        <f>MOD(QUOTIENT(C8,128),2)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R8" s="3">
-        <f>MOD(QUOTIENT(C8,64),2)</f>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="S8" s="3">
-        <f>MOD(QUOTIENT(C8,32),2)</f>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="T8" s="3">
-        <f>MOD(QUOTIENT(C8,16),2)</f>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U8" s="3" t="s">
         <v>25</v>
       </c>
       <c r="V8" s="3">
-        <f>MOD(QUOTIENT(C8,8),2)</f>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="W8" s="3">
-        <f>MOD(QUOTIENT(C8,4),2)</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="X8" s="3">
-        <f>MOD(QUOTIENT(C8,2),2)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="Y8" s="3">
-        <f>MOD(C8,2)</f>
-        <v>0</v>
-      </c>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AC8" s="12"/>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AC8" s="11"/>
     </row>
     <row r="9" spans="1:29" ht="17" customHeight="1">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <f>65536-C7</f>
-        <v>7407</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12" t="s">
+        <v>16481</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="12"/>
+      <c r="F9" s="11"/>
       <c r="G9" s="3">
-        <f>MOD(QUOTIENT(C9,32768),2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H9" s="3">
-        <f>MOD(QUOTIENT(C9,16384),2)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="I9" s="3">
-        <f>MOD(QUOTIENT(C9,8192),2)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J9" s="3">
-        <f>MOD(QUOTIENT(C9,4096),2)</f>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>25</v>
       </c>
       <c r="L9" s="3">
-        <f>MOD(QUOTIENT(C9,2048),2)</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="M9" s="3">
-        <f>MOD(QUOTIENT(C9,1024),2)</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="N9" s="3">
-        <f>MOD(QUOTIENT(C9,512),2)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O9" s="3">
-        <f>MOD(QUOTIENT(C9,256),2)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>25</v>
       </c>
       <c r="Q9" s="3">
-        <f>MOD(QUOTIENT(C9,128),2)</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="R9" s="3">
-        <f>MOD(QUOTIENT(C9,64),2)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S9" s="3">
-        <f>MOD(QUOTIENT(C9,32),2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="T9" s="3">
-        <f>MOD(QUOTIENT(C9,16),2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U9" s="3" t="s">
         <v>25</v>
       </c>
       <c r="V9" s="3">
-        <f>MOD(QUOTIENT(C9,8),2)</f>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="W9" s="3">
-        <f>MOD(QUOTIENT(C9,4),2)</f>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="X9" s="3">
-        <f>MOD(QUOTIENT(C9,2),2)</f>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="Y9" s="3">
-        <f>MOD(C9,2)</f>
-        <v>1</v>
-      </c>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="12"/>
-      <c r="AC9" s="12"/>
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AC9" s="11"/>
     </row>
     <row r="10" spans="1:29">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="12">
-        <f t="shared" ref="C10:C15" si="0">-C4</f>
-        <v>-5567</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="12" t="s">
+      <c r="C10" s="11">
+        <f t="shared" ref="C10:C15" si="16">-C4</f>
+        <v>-16081</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="13" t="s">
         <v>32</v>
       </c>
       <c r="G10" s="3">
@@ -1364,7 +1332,7 @@
       </c>
       <c r="I10" s="3">
         <f>IF(SUM(I$4:$Y4)&gt;1,MOD(I4+1,2),I4)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
         <f>IF(SUM(J$4:$Y4)&gt;1,MOD(J4+1,2),J4)</f>
@@ -1376,7 +1344,7 @@
       </c>
       <c r="L10" s="3">
         <f>IF(SUM(L$4:$Y4)&gt;1,MOD(L4+1,2),L4)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="3">
         <f>IF(SUM(M$4:$Y4)&gt;1,MOD(M4+1,2),M4)</f>
@@ -1384,11 +1352,11 @@
       </c>
       <c r="N10" s="3">
         <f>IF(SUM(N$4:$Y4)&gt;1,MOD(N4+1,2),N4)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="3">
         <f>IF(SUM(O$4:$Y4)&gt;1,MOD(O4+1,2),O4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" s="3" t="str">
         <f>P4</f>
@@ -1400,11 +1368,11 @@
       </c>
       <c r="R10" s="3">
         <f>IF(SUM(R$4:$Y4)&gt;1,MOD(R4+1,2),R4)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" s="3">
         <f>IF(SUM(S$4:$Y4)&gt;1,MOD(S4+1,2),S4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" s="3">
         <f>IF(SUM(T$4:$Y4)&gt;1,MOD(T4+1,2),T4)</f>
@@ -1430,26 +1398,26 @@
         <f>IF(SUM($Y$4:Y4)&gt;1,MOD(Y4+1,2),Y4)</f>
         <v>1</v>
       </c>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
-      <c r="AC10" s="12"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AC10" s="11"/>
     </row>
     <row r="11" spans="1:29">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="12">
-        <f t="shared" si="0"/>
-        <v>-26281</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="12" t="s">
+      <c r="C11" s="11">
+        <f t="shared" si="16"/>
+        <v>-16487</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="13" t="s">
         <v>34</v>
       </c>
       <c r="G11" s="3">
@@ -1462,7 +1430,7 @@
       </c>
       <c r="I11" s="3">
         <f>IF(AND(SUM(I$5:$Y5)&gt;=1,SUM(J11:$Y11)&gt;=1),MOD(I5+1,2),I5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="3">
         <f>IF(AND(SUM(J$5:$Y5)&gt;=1,SUM(K11:$Y11)&gt;=1),MOD(J5+1,2),J5)</f>
@@ -1477,11 +1445,11 @@
       </c>
       <c r="M11" s="3">
         <f>IF(AND(SUM(M$5:$Y5)&gt;=1,SUM(N11:$Y11)&gt;=1),MOD(M5+1,2),M5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="3">
         <f>IF(AND(SUM(N$5:$Y5)&gt;=1,SUM(O11:$Y11)&gt;=1),MOD(N5+1,2),N5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="3">
         <f>IF(AND(SUM(O$5:$Y5)&gt;=1,SUM(P11:$Y11)&gt;=1),MOD(O5+1,2),O5)</f>
@@ -1492,11 +1460,11 @@
       </c>
       <c r="Q11" s="3">
         <f>IF(AND(SUM(Q$5:$Y5)&gt;=1,SUM(R11:$Y11)&gt;=1),MOD(Q5+1,2),Q5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="3">
         <f>IF(AND(SUM(R$5:$Y5)&gt;=1,SUM(S11:$Y11)&gt;=1),MOD(R5+1,2),R5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" s="3">
         <f>IF(AND(SUM(S$5:$Y5)&gt;=1,SUM(T11:$Y11)&gt;=1),MOD(S5+1,2),S5)</f>
@@ -1511,40 +1479,40 @@
       </c>
       <c r="V11" s="3">
         <f>IF(AND(SUM(V$5:$Y5)&gt;=1,SUM(W11:$Y11)&gt;=1),MOD(V5+1,2),V5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11" s="3">
         <f>IF(AND(SUM(W$5:$Y5)&gt;=1,SUM(X11:$Y11)&gt;=1),MOD(W5+1,2),W5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11" s="3">
         <f>IF(AND(SUM(X$5:$Y5)&gt;=1,SUM(Y11:$Y11)&gt;=1),MOD(X5+1,2),X5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="3">
         <f>IF(SUM($Y5:Y5)&gt;1,MOD(Y5+1,2),Y5)</f>
         <v>1</v>
       </c>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
-      <c r="AC11" s="12"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AC11" s="11"/>
     </row>
     <row r="12" spans="1:29">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="12">
-        <f t="shared" si="0"/>
-        <v>-31848</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="12" t="s">
+      <c r="C12" s="11">
+        <f t="shared" si="16"/>
+        <v>-32568</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="13" t="s">
         <v>36</v>
       </c>
       <c r="G12" s="3">
@@ -1576,11 +1544,11 @@
       </c>
       <c r="N12" s="3">
         <f>IF(AND(SUM(N$6:$Y6)&gt;=1,SUM(O12:$Y12)&gt;=1),MOD(N6+1,2),N6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="3">
         <f>IF(AND(SUM(O$6:$Y6)&gt;=1,SUM(P12:$Y12)&gt;=1),MOD(O6+1,2),O6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>25</v>
@@ -1591,7 +1559,7 @@
       </c>
       <c r="R12" s="3">
         <f>IF(AND(SUM(R$6:$Y6)&gt;=1,SUM(S12:$Y12)&gt;=1),MOD(R6+1,2),R6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" s="3">
         <f>IF(AND(SUM(S$6:$Y6)&gt;=1,SUM(T12:$Y12)&gt;=1),MOD(S6+1,2),S6)</f>
@@ -1599,7 +1567,7 @@
       </c>
       <c r="T12" s="3">
         <f>IF(AND(SUM(T$6:$Y6)&gt;=1,SUM(U12:$Y12)&gt;=1),MOD(T6+1,2),T6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" s="3" t="s">
         <v>25</v>
@@ -1620,26 +1588,26 @@
         <f>IF(SUM($Y6:Y6)&gt;1,MOD(Y6+1,2),Y6)</f>
         <v>0</v>
       </c>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="12"/>
-      <c r="AC12" s="12"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AC12" s="11"/>
     </row>
     <row r="13" spans="1:29">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="12">
-        <f t="shared" si="0"/>
-        <v>-58129</v>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="12" t="s">
+      <c r="C13" s="11">
+        <f t="shared" si="16"/>
+        <v>-49055</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="13" t="s">
         <v>38</v>
       </c>
       <c r="G13" s="3">
@@ -1648,7 +1616,7 @@
       </c>
       <c r="H13" s="3">
         <f>IF(AND(SUM(H$7:$Y7)&gt;=1,SUM(I13:$Y13)&gt;=1),MOD(H7+1,2),H7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="3">
         <f>IF(AND(SUM(I$7:$Y7)&gt;=1,SUM(J13:$Y13)&gt;=1),MOD(I7+1,2),I7)</f>
@@ -1656,18 +1624,18 @@
       </c>
       <c r="J13" s="3">
         <f>IF(AND(SUM(J$7:$Y7)&gt;=1,SUM(K13:$Y13)&gt;=1),MOD(J7+1,2),J7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>25</v>
       </c>
       <c r="L13" s="3">
         <f>IF(AND(SUM(L$7:$Y7)&gt;=1,SUM(M13:$Y13)&gt;=1),MOD(L7+1,2),L7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="3">
         <f>IF(AND(SUM(M$7:$Y7)&gt;=1,SUM(N13:$Y13)&gt;=1),MOD(M7+1,2),M7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="3">
         <f>IF(AND(SUM(N$7:$Y7)&gt;=1,SUM(O13:$Y13)&gt;=1),MOD(N7+1,2),N7)</f>
@@ -1682,7 +1650,7 @@
       </c>
       <c r="Q13" s="3">
         <f>IF(AND(SUM(Q$7:$Y7)&gt;=1,SUM(R13:$Y13)&gt;=1),MOD(Q7+1,2),Q7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" s="3">
         <f>IF(AND(SUM(R$7:$Y7)&gt;=1,SUM(S13:$Y13)&gt;=1),MOD(R7+1,2),R7)</f>
@@ -1701,40 +1669,40 @@
       </c>
       <c r="V13" s="3">
         <f>IF(AND(SUM(V$7:$Y7)&gt;=1,SUM(W13:$Y13)&gt;=1),MOD(V7+1,2),V7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W13" s="3">
         <f>IF(AND(SUM(W$7:$Y7)&gt;=1,SUM(X13:$Y13)&gt;=1),MOD(W7+1,2),W7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13" s="3">
         <f>IF(AND(SUM(X$7:$Y7)&gt;=1,SUM(Y13:$Y13)&gt;=1),MOD(X7+1,2),X7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="3">
         <f>IF(SUM($Y7:Y7)&gt;1,MOD(Y7+1,2),Y7)</f>
         <v>1</v>
       </c>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
-      <c r="AC13" s="12"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AC13" s="11"/>
     </row>
     <row r="14" spans="1:29">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="12">
-        <f t="shared" si="0"/>
-        <v>-20714</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="12" t="s">
+      <c r="C14" s="11">
+        <f t="shared" si="16"/>
+        <v>-406</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="13" t="s">
         <v>40</v>
       </c>
       <c r="G14" s="3">
@@ -1743,7 +1711,7 @@
       </c>
       <c r="H14" s="3">
         <f>IF(AND(SUM(H$8:$Y8)&gt;=1,SUM(I14:$Y14)&gt;=1),MOD(H8+1,2),H8)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="3">
         <f>IF(AND(SUM(I$8:$Y8)&gt;=1,SUM(J14:$Y14)&gt;=1),MOD(I8+1,2),I8)</f>
@@ -1751,7 +1719,7 @@
       </c>
       <c r="J14" s="3">
         <f>IF(AND(SUM(J$8:$Y8)&gt;=1,SUM(K14:$Y14)&gt;=1),MOD(J8+1,2),J8)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>25</v>
@@ -1770,7 +1738,7 @@
       </c>
       <c r="O14" s="3">
         <f>IF(AND(SUM(O$8:$Y8)&gt;=1,SUM(P14:$Y14)&gt;=1),MOD(O8+1,2),O8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>25</v>
@@ -1781,26 +1749,26 @@
       </c>
       <c r="R14" s="3">
         <f>IF(AND(SUM(R$8:$Y8)&gt;=1,SUM(S14:$Y14)&gt;=1),MOD(R8+1,2),R8)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14" s="3">
         <f>IF(AND(SUM(S$8:$Y8)&gt;=1,SUM(T14:$Y14)&gt;=1),MOD(S8+1,2),S8)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" s="3">
         <f>IF(AND(SUM(T$8:$Y8)&gt;=1,SUM(U14:$Y14)&gt;=1),MOD(T8+1,2),T8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>25</v>
       </c>
       <c r="V14" s="3">
         <f>IF(AND(SUM(V$8:$Y8)&gt;=1,SUM(W14:$Y14)&gt;=1),MOD(V8+1,2),V8)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14" s="3">
         <f>IF(AND(SUM(W$8:$Y8)&gt;=1,SUM(X14:$Y14)&gt;=1),MOD(W8+1,2),W8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X14" s="3">
         <f>IF(AND(SUM(X$8:$Y8)&gt;=1,SUM(Y14:$Y14)&gt;=1),MOD(X8+1,2),X8)</f>
@@ -1810,26 +1778,26 @@
         <f>IF(SUM($Y8:Y8)&gt;1,MOD(Y8+1,2),Y8)</f>
         <v>0</v>
       </c>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
-      <c r="AC14" s="12"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AC14" s="11"/>
     </row>
     <row r="15" spans="1:29">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="12">
-        <f t="shared" si="0"/>
-        <v>-7407</v>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="12" t="s">
+      <c r="C15" s="11">
+        <f t="shared" si="16"/>
+        <v>-16481</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="13" t="s">
         <v>41</v>
       </c>
       <c r="G15" s="3">
@@ -1838,7 +1806,7 @@
       </c>
       <c r="H15" s="3">
         <f>IF(AND(SUM(H$9:$Y9)&gt;=1,SUM(I15:$Y15)&gt;=1),MOD(H9+1,2),H9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="3">
         <f>IF(AND(SUM(I$9:$Y9)&gt;=1,SUM(J15:$Y15)&gt;=1),MOD(I9+1,2),I9)</f>
@@ -1846,18 +1814,18 @@
       </c>
       <c r="J15" s="3">
         <f>IF(AND(SUM(J$9:$Y9)&gt;=1,SUM(K15:$Y15)&gt;=1),MOD(J9+1,2),J9)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>25</v>
       </c>
       <c r="L15" s="3">
         <f>IF(AND(SUM(L$9:$Y9)&gt;=1,SUM(M15:$Y15)&gt;=1),MOD(L9+1,2),L9)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="3">
         <f>IF(AND(SUM(M$9:$Y9)&gt;=1,SUM(N15:$Y15)&gt;=1),MOD(M9+1,2),M9)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="3">
         <f>IF(AND(SUM(N$9:$Y9)&gt;=1,SUM(O15:$Y15)&gt;=1),MOD(N9+1,2),N9)</f>
@@ -1872,7 +1840,7 @@
       </c>
       <c r="Q15" s="3">
         <f>IF(AND(SUM(Q$9:$Y9)&gt;=1,SUM(R15:$Y15)&gt;=1),MOD(Q9+1,2),Q9)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="3">
         <f>IF(AND(SUM(R$9:$Y9)&gt;=1,SUM(S15:$Y15)&gt;=1),MOD(R9+1,2),R9)</f>
@@ -1891,43 +1859,43 @@
       </c>
       <c r="V15" s="3">
         <f>IF(AND(SUM(V$9:$Y9)&gt;=1,SUM(W15:$Y15)&gt;=1),MOD(V9+1,2),V9)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W15" s="3">
         <f>IF(AND(SUM(W$9:$Y9)&gt;=1,SUM(X15:$Y15)&gt;=1),MOD(W9+1,2),W9)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15" s="3">
         <f>IF(AND(SUM(X$9:$Y9)&gt;=1,SUM(Y15:$Y15)&gt;=1),MOD(X9+1,2),X9)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15" s="3">
         <f>IF(SUM($Y9:Y9)&gt;1,MOD(Y9+1,2),Y9)</f>
         <v>1</v>
       </c>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="12"/>
-      <c r="AC15" s="12"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AC15" s="11"/>
     </row>
     <row r="16" spans="1:29">
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
-      <c r="AC16" s="12"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AC16" s="11"/>
     </row>
     <row r="17" spans="1:33">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="12"/>
-      <c r="AC17" s="12"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AC17" s="11"/>
     </row>
     <row r="18" spans="1:33">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>75</v>
       </c>
       <c r="B18">
@@ -1941,86 +1909,86 @@
         <f>POWER(2,15)-1</f>
         <v>32767</v>
       </c>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="12"/>
-      <c r="AC18" s="12"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AC18" s="11"/>
     </row>
     <row r="19" spans="1:33">
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="12"/>
-      <c r="AC19" s="12"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AC19" s="11"/>
     </row>
     <row r="20" spans="1:33">
-      <c r="G20" s="10">
-        <f t="shared" ref="G20:W20" si="1">IF(SUM(H20,H21,H22)&gt;1,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="10">
+      <c r="G20" s="9">
+        <f t="shared" ref="G20:W20" si="17">IF(SUM(H20,H21,H22)&gt;1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="9">
         <f>IF(SUM(L20,L21,L22)&gt;1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M20" s="10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N20" s="10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O20" s="10">
+      <c r="K20" s="9"/>
+      <c r="L20" s="9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="9">
         <f>IF(SUM(Q20,Q21,Q22)&gt;1,1,0)</f>
         <v>1</v>
       </c>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R20" s="10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="S20" s="10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="T20" s="10">
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="R20" s="9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S20" s="9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T20" s="9">
         <f>IF(SUM(V20,V21,V22)&gt;1,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="W20" s="10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="X20" s="10">
+        <v>0</v>
+      </c>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="W20" s="9">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="X20" s="9">
         <f>IF(SUM(Y20,Y21,Y22)&gt;1,1,0)</f>
         <v>1</v>
       </c>
-      <c r="Y20" s="10">
+      <c r="Y20" s="9">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="12"/>
-      <c r="AC20" s="12"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AC20" s="11"/>
     </row>
     <row r="21" spans="1:33" ht="16" customHeight="1">
       <c r="E21" t="s">
@@ -2034,87 +2002,87 @@
         <v>0</v>
       </c>
       <c r="H21" s="3">
-        <f t="shared" ref="H21:Y21" si="2">H4</f>
+        <f t="shared" ref="H21:Y21" si="18">H4</f>
         <v>0</v>
       </c>
       <c r="I21" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="J21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="K21" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>.</v>
       </c>
       <c r="L21" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="M21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="N21" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="O21" s="3">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
       <c r="P21" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>.</v>
       </c>
       <c r="Q21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="R21" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="S21" s="3">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
       <c r="T21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="U21" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>.</v>
       </c>
       <c r="V21" s="3">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
       <c r="W21" s="3">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
       <c r="X21" s="3">
         <f>X4</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="3">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Z21" s="12"/>
-      <c r="AA21" s="12"/>
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
       <c r="AB21" s="3"/>
-      <c r="AC21" s="12"/>
+      <c r="AC21" s="11"/>
       <c r="AD21" s="3" t="s">
         <v>66</v>
       </c>
       <c r="AE21" s="3">
         <f>C4</f>
-        <v>5567</v>
+        <v>16081</v>
       </c>
       <c r="AF21" s="15" t="str">
         <f>IF(W26=0,"Получен верный результат","Результат ошибочен из-за переполнения формат")</f>
@@ -2134,81 +2102,81 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
-        <f t="shared" ref="H22:Y22" si="3">H5</f>
+        <f t="shared" ref="H22:Y22" si="19">H5</f>
         <v>1</v>
       </c>
       <c r="I22" s="3">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K22" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>.</v>
       </c>
       <c r="L22" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M22" s="3">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="N22" s="3">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="O22" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P22" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>.</v>
       </c>
       <c r="Q22" s="3">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="R22" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>1</v>
       </c>
       <c r="S22" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="T22" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="U22" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>.</v>
       </c>
       <c r="V22" s="3">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="W22" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>1</v>
       </c>
       <c r="X22" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>1</v>
       </c>
       <c r="Y22" s="3">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="12"/>
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
       <c r="AB22" s="3"/>
-      <c r="AC22" s="12" t="s">
+      <c r="AC22" s="11" t="s">
         <v>45</v>
       </c>
       <c r="AD22" s="3" t="s">
@@ -2216,7 +2184,7 @@
       </c>
       <c r="AE22" s="3">
         <f>C5</f>
-        <v>26281</v>
+        <v>16487</v>
       </c>
       <c r="AF22" s="15"/>
       <c r="AG22" s="15"/>
@@ -2280,9 +2248,9 @@
       <c r="Y23" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="Z23" s="12"/>
-      <c r="AA23" s="12"/>
-      <c r="AC23" s="12"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AC23" s="11"/>
       <c r="AD23" s="2"/>
       <c r="AE23" s="2" t="s">
         <v>78</v>
@@ -2292,68 +2260,68 @@
     </row>
     <row r="24" spans="1:33">
       <c r="G24" s="3">
-        <f t="shared" ref="G24:W24" si="4">MOD(SUM(G20:G22),2)</f>
+        <f t="shared" ref="G24:W24" si="20">MOD(SUM(G20:G22),2)</f>
         <v>0</v>
       </c>
       <c r="H24" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="I24" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="J24" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>25</v>
       </c>
       <c r="L24" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="M24" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="N24" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>1</v>
       </c>
       <c r="O24" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>1</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>25</v>
       </c>
       <c r="Q24" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="R24" s="3">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="20"/>
+        <v>0</v>
       </c>
       <c r="S24" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="T24" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>1</v>
       </c>
       <c r="U24" s="3" t="s">
         <v>25</v>
       </c>
       <c r="V24" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="W24" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="X24" s="3">
@@ -2364,25 +2332,25 @@
         <f>MOD(SUM(Y21,Y22),2)</f>
         <v>0</v>
       </c>
-      <c r="Z24" s="12" t="s">
+      <c r="Z24" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="AA24" s="12">
+      <c r="AA24" s="11">
         <f>IF(G24=0,Y24+X24*2+W24*4+V24*8+T24*16+S24*32+R24*64+Q24*128+O24*256+N24*512+M24*1024+L24*2048+J24*4096+I24*8192+H24*16384,(MOD(Y24+1,2)+MOD(X24+1,2)*2+MOD(W24+1,2)*4+MOD(V24+1,2)*8+MOD(T24+1,2)*16+MOD(S24+1,2)*32+MOD(R24+1,2)*64+MOD(Q24+1,2)*128+MOD(O24+1,2)*256+MOD(N24+1,2)*512+MOD(M24+1,2)*1024+MOD(L24+1,2)*2048+MOD(J24+1,2)*4096+MOD(I24+1,2)*8192+MOD(H24+1,2)*16384)*-1-1)</f>
-        <v>31848</v>
-      </c>
-      <c r="AC24" s="12"/>
+        <v>32568</v>
+      </c>
+      <c r="AC24" s="11"/>
       <c r="AE24">
         <f>AE21+AE22</f>
-        <v>31848</v>
+        <v>32568</v>
       </c>
       <c r="AF24" s="15"/>
       <c r="AG24" s="15"/>
     </row>
     <row r="25" spans="1:33">
-      <c r="Z25" s="12"/>
-      <c r="AA25" s="12"/>
-      <c r="AC25" s="12"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
+      <c r="AC25" s="11"/>
     </row>
     <row r="26" spans="1:33">
       <c r="G26" t="s">
@@ -2424,92 +2392,92 @@
         <v>59</v>
       </c>
       <c r="W26">
-        <f>IF(AND(G21=G22,G21&lt;&gt;G24),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z26" s="12"/>
-      <c r="AA26" s="12"/>
-      <c r="AC26" s="12"/>
+        <f>IF(AND(G21=1,G22=1,G24=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="11"/>
+      <c r="AC26" s="11"/>
     </row>
     <row r="27" spans="1:33">
-      <c r="Z27" s="12"/>
-      <c r="AA27" s="12"/>
-      <c r="AC27" s="12"/>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+      <c r="AC27" s="11"/>
     </row>
     <row r="28" spans="1:33">
-      <c r="G28" s="10">
+      <c r="G28" s="9">
         <f>IF(SUM(H28,H29,H30)&gt;1,1,0)</f>
         <v>1</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="9">
         <f>IF(SUM(I28:I30)&gt;1,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="I28" s="10">
+        <v>0</v>
+      </c>
+      <c r="I28" s="9">
         <f xml:space="preserve"> IF(SUM(J28:J30)&gt;1,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="J28" s="10">
+        <v>0</v>
+      </c>
+      <c r="J28" s="9">
         <f>IF(SUM(L28:L30)&gt;1,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="K28" s="10" t="str">
+        <v>0</v>
+      </c>
+      <c r="K28" s="9" t="str">
         <f>K30</f>
         <v>.</v>
       </c>
-      <c r="L28" s="10">
-        <f t="shared" ref="L28" si="5">IF(SUM(M28,M29,M30)&gt;1,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="M28" s="10">
+      <c r="L28" s="9">
+        <f t="shared" ref="L28" si="21">IF(SUM(M28,M29,M30)&gt;1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="9">
         <f>IF(SUM(N28:N30)&gt;1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="N28" s="10">
-        <f t="shared" ref="N28" si="6">IF(SUM(O28,O29,O30)&gt;1,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O28" s="10">
+      <c r="N28" s="9">
+        <f t="shared" ref="N28" si="22">IF(SUM(O28,O29,O30)&gt;1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="9">
         <f>IF(SUM(Q28:Q30)&gt;1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10">
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="R28" s="10">
+      <c r="R28" s="9">
         <f>IF(SUM(S28,S29,S30)&gt;1,1,0)</f>
         <v>1</v>
       </c>
-      <c r="S28" s="10">
+      <c r="S28" s="9">
         <f>IF(SUM(T28:T30)&gt;1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="T28" s="10">
+      <c r="T28" s="9">
         <f>IF(SUM(V28:V30)&gt;1,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="U28" s="10"/>
-      <c r="V28" s="10">
-        <f t="shared" ref="V28" si="7">IF(SUM(W28,W29,W30)&gt;1,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W28" s="10">
+        <v>0</v>
+      </c>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9">
+        <f t="shared" ref="V28" si="23">IF(SUM(W28,W29,W30)&gt;1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="9">
         <f>IF(SUM(X28,X29,X30)&gt;1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="X28" s="10">
+      <c r="X28" s="9">
         <f>IF(SUM(Y28,Y29,Y30)&gt;1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="Y28" s="10">
+      <c r="Y28" s="9">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="Z28" s="12"/>
-      <c r="AA28" s="12"/>
-      <c r="AC28" s="12"/>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
+      <c r="AC28" s="11"/>
     </row>
     <row r="29" spans="1:33">
       <c r="E29" t="s">
@@ -2523,92 +2491,92 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <f t="shared" ref="H29:Y29" si="8">H5</f>
+        <f t="shared" ref="H29:Y29" si="24">H5</f>
         <v>1</v>
       </c>
       <c r="I29" s="3">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="24"/>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="K29" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="24"/>
         <v>.</v>
       </c>
       <c r="L29" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M29" s="3">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="24"/>
+        <v>0</v>
       </c>
       <c r="N29" s="3">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="24"/>
+        <v>0</v>
       </c>
       <c r="O29" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P29" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="24"/>
         <v>.</v>
       </c>
       <c r="Q29" s="3">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="24"/>
+        <v>0</v>
       </c>
       <c r="R29" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>1</v>
       </c>
       <c r="S29" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="T29" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="U29" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="24"/>
         <v>.</v>
       </c>
       <c r="V29" s="3">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="24"/>
+        <v>0</v>
       </c>
       <c r="W29" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>1</v>
       </c>
       <c r="X29" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>1</v>
       </c>
       <c r="Y29" s="3">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="Z29" s="12"/>
-      <c r="AA29" s="12"/>
-      <c r="AC29" s="12"/>
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+      <c r="AC29" s="11"/>
       <c r="AD29" t="s">
         <v>67</v>
       </c>
       <c r="AE29">
         <f>C5</f>
-        <v>26281</v>
-      </c>
-      <c r="AF29" s="9" t="str">
+        <v>16487</v>
+      </c>
+      <c r="AF29" s="14" t="str">
         <f>IF(W34=0,"Получен верный результат","Результат ошибочен из-за переполнения формат")</f>
-        <v>Результат ошибочен из-за переполнения формат</v>
-      </c>
-      <c r="AG29" s="9"/>
+        <v>Получен верный результат</v>
+      </c>
+      <c r="AG29" s="14"/>
     </row>
     <row r="30" spans="1:33">
       <c r="E30" t="s">
@@ -2622,80 +2590,80 @@
         <v>0</v>
       </c>
       <c r="H30" s="3">
-        <f t="shared" ref="H30:Y30" si="9">H6</f>
+        <f t="shared" ref="H30:Y30" si="25">H6</f>
         <v>1</v>
       </c>
       <c r="I30" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="J30" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="K30" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="25"/>
         <v>.</v>
       </c>
       <c r="L30" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="M30" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="N30" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>1</v>
       </c>
       <c r="O30" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>1</v>
       </c>
       <c r="P30" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="25"/>
         <v>.</v>
       </c>
       <c r="Q30" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R30" s="3">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" si="25"/>
+        <v>0</v>
       </c>
       <c r="S30" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="T30" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>1</v>
       </c>
       <c r="U30" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="25"/>
         <v>.</v>
       </c>
       <c r="V30" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="W30" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="X30" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Y30" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z30" s="12"/>
-      <c r="AA30" s="12"/>
-      <c r="AC30" s="12" t="s">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+      <c r="AC30" s="11" t="s">
         <v>45</v>
       </c>
       <c r="AD30" t="s">
@@ -2703,153 +2671,153 @@
       </c>
       <c r="AE30">
         <f>C6</f>
-        <v>31848</v>
-      </c>
-      <c r="AF30" s="9"/>
-      <c r="AG30" s="9"/>
+        <v>32568</v>
+      </c>
+      <c r="AF30" s="14"/>
+      <c r="AG30" s="14"/>
     </row>
     <row r="31" spans="1:33">
       <c r="G31" s="3" t="str">
-        <f t="shared" ref="G31:Y31" si="10">G23</f>
+        <f t="shared" ref="G31:Y31" si="26">G23</f>
         <v>--------</v>
       </c>
       <c r="H31" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>--------</v>
       </c>
       <c r="I31" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>--------</v>
       </c>
       <c r="J31" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>--------</v>
       </c>
       <c r="K31" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>--------</v>
       </c>
       <c r="L31" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>--------</v>
       </c>
       <c r="M31" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>--------</v>
       </c>
       <c r="N31" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>--------</v>
       </c>
       <c r="O31" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>--------</v>
       </c>
       <c r="P31" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>--------</v>
       </c>
       <c r="Q31" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>--------</v>
       </c>
       <c r="R31" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>--------</v>
       </c>
       <c r="S31" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>--------</v>
       </c>
       <c r="T31" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>--------</v>
       </c>
       <c r="U31" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>--------</v>
       </c>
       <c r="V31" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>--------</v>
       </c>
       <c r="W31" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>--------</v>
       </c>
       <c r="X31" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>--------</v>
       </c>
       <c r="Y31" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>-----</v>
       </c>
-      <c r="Z31" s="12"/>
-      <c r="AA31" s="12"/>
-      <c r="AC31" s="12"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+      <c r="AC31" s="11"/>
       <c r="AD31" s="2"/>
       <c r="AE31" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AF31" s="9"/>
-      <c r="AG31" s="9"/>
+      <c r="AF31" s="14"/>
+      <c r="AG31" s="14"/>
     </row>
     <row r="32" spans="1:33">
       <c r="G32" s="3">
-        <f t="shared" ref="G32:X32" si="11">MOD(SUM(G28:G30),2)</f>
+        <f t="shared" ref="G32:X32" si="27">MOD(SUM(G28:G30),2)</f>
         <v>1</v>
       </c>
       <c r="H32" s="3">
         <f>MOD(SUM(H28:H30),2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="J32" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>1</v>
       </c>
       <c r="K32" s="3" t="str">
         <f>K30</f>
         <v>.</v>
       </c>
       <c r="L32" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>1</v>
       </c>
       <c r="M32" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>1</v>
       </c>
       <c r="N32" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="O32" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>1</v>
       </c>
       <c r="P32" s="3" t="str">
         <f>P30</f>
         <v>.</v>
       </c>
       <c r="Q32" s="3">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="27"/>
+        <v>0</v>
       </c>
       <c r="R32" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S32" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="T32" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="U32" s="3" t="str">
@@ -2857,40 +2825,40 @@
         <v>.</v>
       </c>
       <c r="V32" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>1</v>
       </c>
       <c r="W32" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>1</v>
       </c>
       <c r="X32" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>1</v>
       </c>
       <c r="Y32" s="3">
         <f>MOD(SUM(Y28:Y30),2)</f>
         <v>1</v>
       </c>
-      <c r="Z32" s="12" t="s">
+      <c r="Z32" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="AA32" s="12">
-        <f t="shared" ref="AA32:AA77" si="12">IF(G32=0,Y32+X32*2+W32*4+V32*8+T32*16+S32*32+R32*64+Q32*128+O32*256+N32*512+M32*1024+L32*2048+J32*4096+I32*8192+H32*16384,(MOD(Y32+1,2)+MOD(X32+1,2)*2+MOD(W32+1,2)*4+MOD(V32+1,2)*8+MOD(T32+1,2)*16+MOD(S32+1,2)*32+MOD(R32+1,2)*64+MOD(Q32+1,2)*128+MOD(O32+1,2)*256+MOD(N32+1,2)*512+MOD(M32+1,2)*1024+MOD(L32+1,2)*2048+MOD(J32+1,2)*4096+MOD(I32+1,2)*8192+MOD(H32+1,2)*16384)*-1-1)</f>
-        <v>-7535</v>
-      </c>
-      <c r="AC32" s="12"/>
+      <c r="AA32" s="11">
+        <f t="shared" ref="AA32:AA77" si="28">IF(G32=0,Y32+X32*2+W32*4+V32*8+T32*16+S32*32+R32*64+Q32*128+O32*256+N32*512+M32*1024+L32*2048+J32*4096+I32*8192+H32*16384,(MOD(Y32+1,2)+MOD(X32+1,2)*2+MOD(W32+1,2)*4+MOD(V32+1,2)*8+MOD(T32+1,2)*16+MOD(S32+1,2)*32+MOD(R32+1,2)*64+MOD(Q32+1,2)*128+MOD(O32+1,2)*256+MOD(N32+1,2)*512+MOD(M32+1,2)*1024+MOD(L32+1,2)*2048+MOD(J32+1,2)*4096+MOD(I32+1,2)*8192+MOD(H32+1,2)*16384)*-1-1)</f>
+        <v>-16609</v>
+      </c>
+      <c r="AC32" s="11"/>
       <c r="AE32">
         <f>AE29+AE30</f>
-        <v>58129</v>
-      </c>
-      <c r="AF32" s="9"/>
-      <c r="AG32" s="9"/>
+        <v>49055</v>
+      </c>
+      <c r="AF32" s="14"/>
+      <c r="AG32" s="14"/>
     </row>
     <row r="33" spans="5:33">
-      <c r="Z33" s="12"/>
-      <c r="AA33" s="12"/>
-      <c r="AC33" s="12"/>
+      <c r="Z33" s="11"/>
+      <c r="AA33" s="11"/>
+      <c r="AC33" s="11"/>
     </row>
     <row r="34" spans="5:33">
       <c r="G34" s="3" t="s">
@@ -2907,7 +2875,7 @@
       </c>
       <c r="K34" s="3">
         <f>IF(MOD(SUM(V32:Y32,Q32:T32,L32:O32,G32:J32),2)=0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" s="3"/>
       <c r="M34" s="3" t="str">
@@ -2942,89 +2910,89 @@
         <v>OF=</v>
       </c>
       <c r="W34" s="3">
-        <f>IF(AND(G29=G30,G29&lt;&gt;G32),1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="Z34" s="12"/>
-      <c r="AA34" s="12"/>
-      <c r="AC34" s="12"/>
+        <f>IF(AND(G29=1,G30=1,G32=0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z34" s="11"/>
+      <c r="AA34" s="11"/>
+      <c r="AC34" s="11"/>
     </row>
     <row r="35" spans="5:33">
-      <c r="Z35" s="12"/>
-      <c r="AA35" s="12"/>
-      <c r="AC35" s="12"/>
+      <c r="Z35" s="11"/>
+      <c r="AA35" s="11"/>
+      <c r="AC35" s="11"/>
     </row>
     <row r="36" spans="5:33">
-      <c r="G36" s="10">
-        <f t="shared" ref="G36:S36" si="13">IF(SUM(H36:H38)&gt;1,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H36" s="10">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="I36" s="10">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="10">
+      <c r="G36" s="9">
+        <f t="shared" ref="G36:S36" si="29">IF(SUM(H36:H38)&gt;1,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H36" s="9">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="9">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="9">
         <f>IF(SUM(L36:L38)&gt;1,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="M36" s="10">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="N36" s="10">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="O36" s="10">
+        <v>0</v>
+      </c>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="9">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="9">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="9">
         <f>IF(SUM(Q36:Q38)&gt;1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="R36" s="10">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="S36" s="10">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T36" s="10">
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="R36" s="9">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="S36" s="9">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="T36" s="9">
         <f>IF(SUM(V36:V38)&gt;1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="U36" s="10"/>
-      <c r="V36" s="10">
-        <f t="shared" ref="V36:W36" si="14">IF(SUM(W36:W38)&gt;1,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W36" s="10">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="X36" s="10">
+      <c r="U36" s="9"/>
+      <c r="V36" s="9">
+        <f t="shared" ref="V36:W36" si="30">IF(SUM(W36:W38)&gt;1,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="W36" s="9">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="X36" s="9">
         <f>IF(SUM(Y36:Y38)&gt;1,1,0)</f>
         <v>1</v>
       </c>
-      <c r="Y36" s="10">
+      <c r="Y36" s="9">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="Z36" s="12"/>
-      <c r="AA36" s="12"/>
-      <c r="AC36" s="12"/>
+      <c r="Z36" s="11"/>
+      <c r="AA36" s="11"/>
+      <c r="AC36" s="11"/>
     </row>
     <row r="37" spans="5:33">
       <c r="E37" t="s">
@@ -3043,87 +3011,87 @@
       </c>
       <c r="I37" s="3">
         <f>I5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" s="3">
-        <f t="shared" ref="J37:Y37" si="15">J5</f>
+        <f t="shared" ref="J37:Y37" si="31">J5</f>
         <v>0</v>
       </c>
       <c r="K37" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="31"/>
         <v>.</v>
       </c>
       <c r="L37" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="M37" s="3">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f t="shared" si="31"/>
+        <v>0</v>
       </c>
       <c r="N37" s="3">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f t="shared" si="31"/>
+        <v>0</v>
       </c>
       <c r="O37" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="P37" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="31"/>
         <v>.</v>
       </c>
       <c r="Q37" s="3">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f t="shared" si="31"/>
+        <v>0</v>
       </c>
       <c r="R37" s="3">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="31"/>
+        <v>1</v>
       </c>
       <c r="S37" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="T37" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="U37" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="31"/>
         <v>.</v>
       </c>
       <c r="V37" s="3">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f t="shared" si="31"/>
+        <v>0</v>
       </c>
       <c r="W37" s="3">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="31"/>
+        <v>1</v>
       </c>
       <c r="X37" s="3">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="31"/>
+        <v>1</v>
       </c>
       <c r="Y37" s="3">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="Z37" s="12"/>
-      <c r="AA37" s="12"/>
-      <c r="AC37" s="12"/>
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="Z37" s="11"/>
+      <c r="AA37" s="11"/>
+      <c r="AC37" s="11"/>
       <c r="AD37" t="s">
         <v>67</v>
       </c>
       <c r="AE37">
         <f>C5</f>
-        <v>26281</v>
-      </c>
-      <c r="AF37" s="9" t="str">
+        <v>16487</v>
+      </c>
+      <c r="AF37" s="14" t="str">
         <f>IF(W42=0,"Получен верный результат","Результат ошибочен из-за переполнения формат")</f>
-        <v>Получен верный результат</v>
-      </c>
-      <c r="AG37" s="9"/>
+        <v>Результат ошибочен из-за переполнения формат</v>
+      </c>
+      <c r="AG37" s="14"/>
     </row>
     <row r="38" spans="5:33">
       <c r="E38" t="s">
@@ -3137,80 +3105,80 @@
         <v>1</v>
       </c>
       <c r="H38" s="3">
-        <f t="shared" ref="H38:Y38" si="16">H10</f>
+        <f t="shared" ref="H38:Y38" si="32">H10</f>
         <v>1</v>
       </c>
       <c r="I38" s="3">
-        <f t="shared" si="16"/>
-        <v>1</v>
+        <f t="shared" si="32"/>
+        <v>0</v>
       </c>
       <c r="J38" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K38" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="32"/>
         <v>.</v>
       </c>
       <c r="L38" s="3">
-        <f t="shared" si="16"/>
-        <v>1</v>
+        <f t="shared" si="32"/>
+        <v>0</v>
       </c>
       <c r="M38" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N38" s="3">
-        <f t="shared" si="16"/>
-        <v>1</v>
+        <f t="shared" si="32"/>
+        <v>0</v>
       </c>
       <c r="O38" s="3">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="32"/>
+        <v>1</v>
       </c>
       <c r="P38" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="32"/>
         <v>.</v>
       </c>
       <c r="Q38" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="R38" s="3">
-        <f t="shared" si="16"/>
-        <v>1</v>
+        <f t="shared" si="32"/>
+        <v>0</v>
       </c>
       <c r="S38" s="3">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="32"/>
+        <v>1</v>
       </c>
       <c r="T38" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="U38" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="32"/>
         <v>.</v>
       </c>
       <c r="V38" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="W38" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="X38" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Y38" s="3">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="Z38" s="12"/>
-      <c r="AA38" s="12"/>
-      <c r="AC38" s="12" t="s">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="Z38" s="11"/>
+      <c r="AA38" s="11"/>
+      <c r="AC38" s="11" t="s">
         <v>45</v>
       </c>
       <c r="AD38" t="s">
@@ -3218,10 +3186,10 @@
       </c>
       <c r="AE38">
         <f>C10</f>
-        <v>-5567</v>
-      </c>
-      <c r="AF38" s="9"/>
-      <c r="AG38" s="9"/>
+        <v>-16081</v>
+      </c>
+      <c r="AF38" s="14"/>
+      <c r="AG38" s="14"/>
     </row>
     <row r="39" spans="5:33">
       <c r="G39" s="3" t="str">
@@ -3229,142 +3197,142 @@
         <v>--------</v>
       </c>
       <c r="H39" s="3" t="str">
-        <f t="shared" ref="H39:Y39" si="17">H31</f>
+        <f t="shared" ref="H39:Y39" si="33">H31</f>
         <v>--------</v>
       </c>
       <c r="I39" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>--------</v>
       </c>
       <c r="J39" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>--------</v>
       </c>
       <c r="K39" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>--------</v>
       </c>
       <c r="L39" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>--------</v>
       </c>
       <c r="M39" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>--------</v>
       </c>
       <c r="N39" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>--------</v>
       </c>
       <c r="O39" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>--------</v>
       </c>
       <c r="P39" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>--------</v>
       </c>
       <c r="Q39" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>--------</v>
       </c>
       <c r="R39" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>--------</v>
       </c>
       <c r="S39" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>--------</v>
       </c>
       <c r="T39" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>--------</v>
       </c>
       <c r="U39" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>--------</v>
       </c>
       <c r="V39" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>--------</v>
       </c>
       <c r="W39" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>--------</v>
       </c>
       <c r="X39" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>--------</v>
       </c>
       <c r="Y39" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>-----</v>
       </c>
-      <c r="Z39" s="12"/>
-      <c r="AA39" s="12"/>
-      <c r="AC39" s="12"/>
+      <c r="Z39" s="11"/>
+      <c r="AA39" s="11"/>
+      <c r="AC39" s="11"/>
       <c r="AD39" s="2"/>
       <c r="AE39" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AF39" s="9"/>
-      <c r="AG39" s="9"/>
+      <c r="AF39" s="14"/>
+      <c r="AG39" s="14"/>
     </row>
     <row r="40" spans="5:33">
       <c r="G40" s="3">
-        <f t="shared" ref="G40:X40" si="18">MOD(SUM(G36:G38),2)</f>
+        <f t="shared" ref="G40:X40" si="34">MOD(SUM(G36:G38),2)</f>
         <v>0</v>
       </c>
       <c r="H40" s="3">
-        <f t="shared" si="18"/>
-        <v>1</v>
+        <f t="shared" si="34"/>
+        <v>0</v>
       </c>
       <c r="I40" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J40" s="3">
-        <f t="shared" si="18"/>
-        <v>1</v>
+        <f t="shared" si="34"/>
+        <v>0</v>
       </c>
       <c r="K40" s="3" t="str">
         <f>K38</f>
         <v>.</v>
       </c>
       <c r="L40" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M40" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="N40" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="O40" s="3">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>1</v>
       </c>
       <c r="P40" s="3" t="str">
         <f>P38</f>
         <v>.</v>
       </c>
       <c r="Q40" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="R40" s="3">
-        <f t="shared" si="18"/>
-        <v>1</v>
+        <f t="shared" si="34"/>
+        <v>0</v>
       </c>
       <c r="S40" s="3">
-        <f t="shared" si="18"/>
-        <v>1</v>
+        <f t="shared" si="34"/>
+        <v>0</v>
       </c>
       <c r="T40" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="U40" s="3" t="str">
@@ -3372,35 +3340,35 @@
         <v>.</v>
       </c>
       <c r="V40" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="W40" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="X40" s="3">
-        <f t="shared" si="18"/>
-        <v>1</v>
+        <f t="shared" si="34"/>
+        <v>0</v>
       </c>
       <c r="Y40" s="3">
         <f>MOD(SUM(Y36:Y38),2)</f>
         <v>0</v>
       </c>
-      <c r="Z40" s="12" t="s">
+      <c r="Z40" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="AA40" s="12">
-        <f t="shared" si="12"/>
-        <v>20714</v>
-      </c>
-      <c r="AC40" s="12"/>
+      <c r="AA40" s="11">
+        <f t="shared" si="28"/>
+        <v>392</v>
+      </c>
+      <c r="AC40" s="11"/>
       <c r="AE40">
         <f>AE37+AE38</f>
-        <v>20714</v>
-      </c>
-      <c r="AF40" s="9"/>
-      <c r="AG40" s="9"/>
+        <v>406</v>
+      </c>
+      <c r="AF40" s="14"/>
+      <c r="AG40" s="14"/>
     </row>
     <row r="41" spans="5:33">
       <c r="G41" s="3"/>
@@ -3422,9 +3390,9 @@
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
       <c r="Y41" s="3"/>
-      <c r="Z41" s="12"/>
-      <c r="AA41" s="12"/>
-      <c r="AC41" s="12"/>
+      <c r="Z41" s="11"/>
+      <c r="AA41" s="11"/>
+      <c r="AC41" s="11"/>
     </row>
     <row r="42" spans="5:33">
       <c r="G42" s="3" t="s">
@@ -3448,7 +3416,7 @@
       </c>
       <c r="N42" s="3">
         <f>V36</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O42" s="3"/>
       <c r="P42" s="3" t="s">
@@ -3471,134 +3439,134 @@
         <v>59</v>
       </c>
       <c r="W42" s="3">
-        <f>IF(AND(G37=G38,G37&lt;&gt;G40),1,0)</f>
-        <v>0</v>
+        <f>IF(SUM(G36:G38)&gt;1,1,0)</f>
+        <v>1</v>
       </c>
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
-      <c r="Z42" s="12"/>
-      <c r="AA42" s="12"/>
-      <c r="AC42" s="12"/>
+      <c r="Z42" s="11"/>
+      <c r="AA42" s="11"/>
+      <c r="AC42" s="11"/>
     </row>
     <row r="43" spans="5:33">
-      <c r="Z43" s="12"/>
-      <c r="AA43" s="12"/>
-      <c r="AC43" s="12"/>
+      <c r="Z43" s="11"/>
+      <c r="AA43" s="11"/>
+      <c r="AC43" s="11"/>
     </row>
     <row r="44" spans="5:33">
-      <c r="Z44" s="12"/>
-      <c r="AA44" s="12"/>
-      <c r="AC44" s="12"/>
+      <c r="Z44" s="11"/>
+      <c r="AA44" s="11"/>
+      <c r="AC44" s="11"/>
     </row>
     <row r="45" spans="5:33">
-      <c r="Z45" s="12"/>
-      <c r="AA45" s="12"/>
-      <c r="AC45" s="12"/>
+      <c r="Z45" s="11"/>
+      <c r="AA45" s="11"/>
+      <c r="AC45" s="11"/>
     </row>
     <row r="46" spans="5:33">
-      <c r="Z46" s="12"/>
-      <c r="AA46" s="12"/>
-      <c r="AC46" s="12"/>
+      <c r="Z46" s="11"/>
+      <c r="AA46" s="11"/>
+      <c r="AC46" s="11"/>
     </row>
     <row r="47" spans="5:33">
-      <c r="Z47" s="12"/>
-      <c r="AA47" s="12"/>
-      <c r="AC47" s="12"/>
+      <c r="Z47" s="11"/>
+      <c r="AA47" s="11"/>
+      <c r="AC47" s="11"/>
     </row>
     <row r="48" spans="5:33">
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="10"/>
-      <c r="R48" s="10"/>
-      <c r="S48" s="10"/>
-      <c r="T48" s="10"/>
-      <c r="U48" s="10"/>
-      <c r="V48" s="10"/>
-      <c r="W48" s="10"/>
-      <c r="X48" s="10"/>
-      <c r="Y48" s="10"/>
-      <c r="Z48" s="12"/>
-      <c r="AA48" s="12"/>
-      <c r="AC48" s="12"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="9"/>
+      <c r="V48" s="9"/>
+      <c r="W48" s="9"/>
+      <c r="X48" s="9"/>
+      <c r="Y48" s="9"/>
+      <c r="Z48" s="11"/>
+      <c r="AA48" s="11"/>
+      <c r="AC48" s="11"/>
     </row>
     <row r="49" spans="5:33">
-      <c r="G49" s="10">
-        <f t="shared" ref="G49:H49" si="19">IF(SUM(H49:H51)&gt;1,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H49" s="10">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="I49" s="10">
+      <c r="G49" s="9">
+        <f t="shared" ref="G49:H49" si="35">IF(SUM(H49:H51)&gt;1,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H49" s="9">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="I49" s="9">
         <f>IF(SUM(J49:J51)&gt;1,1,0)</f>
         <v>1</v>
       </c>
-      <c r="J49" s="10">
-        <f t="shared" ref="J49" si="20">IF(SUM(L49:L51)&gt;1,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10">
-        <f t="shared" ref="L49:M49" si="21">IF(SUM(M49:M51)&gt;1,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M49" s="10">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="N49" s="10">
+      <c r="J49" s="9">
+        <f t="shared" ref="J49" si="36">IF(SUM(L49:L51)&gt;1,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9">
+        <f t="shared" ref="L49:M49" si="37">IF(SUM(M49:M51)&gt;1,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M49" s="9">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="N49" s="9">
         <f>IF(SUM(O49:O51)&gt;1,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O49" s="10">
+        <v>1</v>
+      </c>
+      <c r="O49" s="9">
         <f>IF(SUM(Q49:Q51)&gt;1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="10">
-        <f t="shared" ref="Q49:R49" si="22">IF(SUM(R49:R51)&gt;1,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="R49" s="10">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="S49" s="10">
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9">
+        <f t="shared" ref="Q49:R49" si="38">IF(SUM(R49:R51)&gt;1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R49" s="9">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="S49" s="9">
         <f>IF(SUM(T49:T51)&gt;1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="T49" s="10">
+      <c r="T49" s="9">
         <f>IF(SUM(V49:V51)&gt;1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="U49" s="10"/>
-      <c r="V49" s="10">
-        <f t="shared" ref="V49:W49" si="23">IF(SUM(W49,W50,W51)&gt;1,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W49" s="10">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="X49" s="10">
+      <c r="U49" s="9"/>
+      <c r="V49" s="9">
+        <f t="shared" ref="V49:W49" si="39">IF(SUM(W49,W50,W51)&gt;1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W49" s="9">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="X49" s="9">
         <f>IF(SUM(Y49,Y50,Y51)&gt;1,1,0)</f>
         <v>1</v>
       </c>
-      <c r="Y49" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="12"/>
-      <c r="AA49" s="12"/>
-      <c r="AC49" s="12"/>
+      <c r="Y49" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="11"/>
+      <c r="AA49" s="11"/>
+      <c r="AC49" s="11"/>
     </row>
     <row r="50" spans="5:33">
       <c r="E50" t="s">
@@ -3612,92 +3580,92 @@
         <v>1</v>
       </c>
       <c r="H50" s="3">
-        <f t="shared" ref="H50:X50" si="24">H10</f>
+        <f t="shared" ref="H50:X50" si="40">H10</f>
         <v>1</v>
       </c>
       <c r="I50" s="3">
-        <f t="shared" si="24"/>
-        <v>1</v>
+        <f t="shared" si="40"/>
+        <v>0</v>
       </c>
       <c r="J50" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="K50" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="40"/>
         <v>.</v>
       </c>
       <c r="L50" s="3">
-        <f t="shared" si="24"/>
-        <v>1</v>
+        <f t="shared" si="40"/>
+        <v>0</v>
       </c>
       <c r="M50" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N50" s="3">
-        <f t="shared" si="24"/>
-        <v>1</v>
+        <f t="shared" si="40"/>
+        <v>0</v>
       </c>
       <c r="O50" s="3">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>1</v>
       </c>
       <c r="P50" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="40"/>
         <v>.</v>
       </c>
       <c r="Q50" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="R50" s="3">
-        <f t="shared" si="24"/>
-        <v>1</v>
+        <f t="shared" si="40"/>
+        <v>0</v>
       </c>
       <c r="S50" s="3">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>1</v>
       </c>
       <c r="T50" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="U50" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="40"/>
         <v>.</v>
       </c>
       <c r="V50" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="W50" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="X50" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Y50" s="3">
         <f>Y10</f>
         <v>1</v>
       </c>
-      <c r="Z50" s="12"/>
-      <c r="AA50" s="12"/>
-      <c r="AC50" s="12"/>
+      <c r="Z50" s="11"/>
+      <c r="AA50" s="11"/>
+      <c r="AC50" s="11"/>
       <c r="AD50" t="s">
         <v>69</v>
       </c>
       <c r="AE50">
         <f>C10</f>
-        <v>-5567</v>
-      </c>
-      <c r="AF50" s="9" t="str">
+        <v>-16081</v>
+      </c>
+      <c r="AF50" s="14" t="str">
         <f>IF(W55=0,"Получен верный результат","Результат ошибочен из-за переполнения формат")</f>
         <v>Получен верный результат</v>
       </c>
-      <c r="AG50" s="9"/>
+      <c r="AG50" s="14"/>
     </row>
     <row r="51" spans="5:33">
       <c r="E51" t="s">
@@ -3711,80 +3679,80 @@
         <v>1</v>
       </c>
       <c r="H51" s="4">
-        <f t="shared" ref="H51:Y51" si="25">H11</f>
+        <f t="shared" ref="H51:Y51" si="41">H11</f>
         <v>0</v>
       </c>
       <c r="I51" s="4">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="41"/>
+        <v>1</v>
       </c>
       <c r="J51" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="K51" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="41"/>
         <v>.</v>
       </c>
       <c r="L51" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="M51" s="4">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="41"/>
+        <v>1</v>
       </c>
       <c r="N51" s="4">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="41"/>
+        <v>1</v>
       </c>
       <c r="O51" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="P51" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="41"/>
         <v>.</v>
       </c>
       <c r="Q51" s="4">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="41"/>
+        <v>1</v>
       </c>
       <c r="R51" s="4">
-        <f t="shared" si="25"/>
-        <v>1</v>
+        <f t="shared" si="41"/>
+        <v>0</v>
       </c>
       <c r="S51" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="T51" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="U51" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="41"/>
         <v>.</v>
       </c>
       <c r="V51" s="4">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="41"/>
+        <v>1</v>
       </c>
       <c r="W51" s="4">
-        <f t="shared" si="25"/>
-        <v>1</v>
+        <f t="shared" si="41"/>
+        <v>0</v>
       </c>
       <c r="X51" s="4">
-        <f t="shared" si="25"/>
-        <v>1</v>
+        <f t="shared" si="41"/>
+        <v>0</v>
       </c>
       <c r="Y51" s="4">
-        <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="Z51" s="12"/>
-      <c r="AA51" s="12"/>
-      <c r="AC51" s="12" t="s">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+      <c r="Z51" s="11"/>
+      <c r="AA51" s="11"/>
+      <c r="AC51" s="11" t="s">
         <v>45</v>
       </c>
       <c r="AD51" t="s">
@@ -3792,10 +3760,10 @@
       </c>
       <c r="AE51">
         <f>C11</f>
-        <v>-26281</v>
-      </c>
-      <c r="AF51" s="9"/>
-      <c r="AG51" s="9"/>
+        <v>-16487</v>
+      </c>
+      <c r="AF51" s="14"/>
+      <c r="AG51" s="14"/>
     </row>
     <row r="52" spans="5:33">
       <c r="G52" s="4" t="s">
@@ -3855,31 +3823,31 @@
       <c r="Y52" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="Z52" s="12"/>
-      <c r="AA52" s="12"/>
-      <c r="AC52" s="12"/>
+      <c r="Z52" s="11"/>
+      <c r="AA52" s="11"/>
+      <c r="AC52" s="11"/>
       <c r="AD52" s="2"/>
       <c r="AE52" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AF52" s="9"/>
-      <c r="AG52" s="9"/>
+      <c r="AF52" s="14"/>
+      <c r="AG52" s="14"/>
     </row>
     <row r="53" spans="5:33">
       <c r="G53" s="3">
-        <f t="shared" ref="G53:X53" si="26">MOD(SUM(G49:G51),2)</f>
+        <f t="shared" ref="G53:X53" si="42">MOD(SUM(G49:G51),2)</f>
         <v>1</v>
       </c>
       <c r="H53" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="I53" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="J53" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="K53" s="3" t="str">
@@ -3887,39 +3855,39 @@
         <v>.</v>
       </c>
       <c r="L53" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="M53" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="N53" s="3">
-        <f t="shared" si="26"/>
-        <v>1</v>
+        <f t="shared" si="42"/>
+        <v>0</v>
       </c>
       <c r="O53" s="3">
-        <f t="shared" si="26"/>
-        <v>1</v>
+        <f t="shared" si="42"/>
+        <v>0</v>
       </c>
       <c r="P53" s="3" t="str">
         <f>P51</f>
         <v>.</v>
       </c>
       <c r="Q53" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="R53" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="S53" s="3">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="42"/>
+        <v>1</v>
       </c>
       <c r="T53" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="U53" s="3" t="str">
@@ -3927,35 +3895,35 @@
         <v>.</v>
       </c>
       <c r="V53" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="W53" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="X53" s="3">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="42"/>
+        <v>1</v>
       </c>
       <c r="Y53" s="3">
         <f>MOD(SUM(Y49:Y51),2)</f>
         <v>0</v>
       </c>
-      <c r="Z53" s="12" t="s">
+      <c r="Z53" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="AA53" s="12">
-        <f t="shared" si="12"/>
-        <v>-31848</v>
-      </c>
-      <c r="AC53" s="12"/>
+      <c r="AA53" s="11">
+        <f t="shared" si="28"/>
+        <v>-32582</v>
+      </c>
+      <c r="AC53" s="11"/>
       <c r="AE53">
         <f>AE50+AE51</f>
-        <v>-31848</v>
-      </c>
-      <c r="AF53" s="9"/>
-      <c r="AG53" s="9"/>
+        <v>-32568</v>
+      </c>
+      <c r="AF53" s="14"/>
+      <c r="AG53" s="14"/>
     </row>
     <row r="54" spans="5:33">
       <c r="G54" s="3"/>
@@ -3977,9 +3945,9 @@
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
-      <c r="Z54" s="12"/>
-      <c r="AA54" s="12"/>
-      <c r="AC54" s="12"/>
+      <c r="Z54" s="11"/>
+      <c r="AA54" s="11"/>
+      <c r="AC54" s="11"/>
     </row>
     <row r="55" spans="5:33">
       <c r="G55" s="3" t="s">
@@ -4003,7 +3971,7 @@
       </c>
       <c r="N55" s="3">
         <f>V49</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O55" s="3"/>
       <c r="P55" s="3" t="s">
@@ -4031,85 +3999,85 @@
       </c>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-      <c r="Z55" s="12"/>
-      <c r="AA55" s="12"/>
-      <c r="AC55" s="12"/>
+      <c r="Z55" s="11"/>
+      <c r="AA55" s="11"/>
+      <c r="AC55" s="11"/>
     </row>
     <row r="56" spans="5:33">
-      <c r="Z56" s="12"/>
-      <c r="AA56" s="12"/>
-      <c r="AC56" s="12"/>
+      <c r="Z56" s="11"/>
+      <c r="AA56" s="11"/>
+      <c r="AC56" s="11"/>
     </row>
     <row r="57" spans="5:33">
-      <c r="G57" s="10">
-        <f t="shared" ref="G57:H57" si="27">IF(SUM(H57:H59)&gt;1,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H57" s="10">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="I57" s="10">
+      <c r="G57" s="9">
+        <f t="shared" ref="G57:H57" si="43">IF(SUM(H57:H59)&gt;1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H57" s="9">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="I57" s="9">
         <f>IF(SUM(J57:J59)&gt;1,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J57" s="10">
-        <f t="shared" ref="J57" si="28">IF(SUM(L57:L59)&gt;1,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K57" s="10"/>
-      <c r="L57" s="10">
-        <f t="shared" ref="L57:M57" si="29">IF(SUM(M57:M59)&gt;1,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M57" s="10">
-        <f t="shared" si="29"/>
-        <v>1</v>
-      </c>
-      <c r="N57" s="10">
+        <v>1</v>
+      </c>
+      <c r="J57" s="9">
+        <f t="shared" ref="J57" si="44">IF(SUM(L57:L59)&gt;1,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9">
+        <f t="shared" ref="L57:M57" si="45">IF(SUM(M57:M59)&gt;1,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M57" s="9">
+        <f t="shared" si="45"/>
+        <v>1</v>
+      </c>
+      <c r="N57" s="9">
         <f>IF(SUM(O57:O59)&gt;1,1,0)</f>
         <v>1</v>
       </c>
-      <c r="O57" s="10">
+      <c r="O57" s="9">
         <f>IF(SUM(Q57:Q59)&gt;1,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P57" s="10"/>
-      <c r="Q57" s="10">
-        <f t="shared" ref="Q57:R57" si="30">IF(SUM(R57:R59)&gt;1,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="R57" s="10">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="S57" s="10">
+        <v>1</v>
+      </c>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="9">
+        <f t="shared" ref="Q57:R57" si="46">IF(SUM(R57:R59)&gt;1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R57" s="9">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S57" s="9">
         <f>IF(SUM(T57:T59)&gt;1,1,0)</f>
         <v>1</v>
       </c>
-      <c r="T57" s="10">
+      <c r="T57" s="9">
         <f>IF(SUM(V57:V59)&gt;1,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U57" s="10"/>
-      <c r="V57" s="10">
-        <f t="shared" ref="V57:W57" si="31">IF(SUM(W57,W58,W59)&gt;1,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W57" s="10">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="X57" s="10">
+        <v>1</v>
+      </c>
+      <c r="U57" s="9"/>
+      <c r="V57" s="9">
+        <f t="shared" ref="V57:W57" si="47">IF(SUM(W57,W58,W59)&gt;1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W57" s="9">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="X57" s="9">
         <f>IF(SUM(Y57,Y58,Y59)&gt;1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="Y57" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z57" s="12"/>
-      <c r="AA57" s="12"/>
-      <c r="AC57" s="12"/>
+      <c r="Y57" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="11"/>
+      <c r="AA57" s="11"/>
+      <c r="AC57" s="11"/>
     </row>
     <row r="58" spans="5:33">
       <c r="E58" t="s">
@@ -4119,96 +4087,96 @@
         <v>53</v>
       </c>
       <c r="G58" s="3">
-        <f>G11</f>
+        <f t="shared" ref="G58:Y58" si="48">G11</f>
         <v>1</v>
       </c>
       <c r="H58" s="3">
-        <f>H11</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <f>I11</f>
-        <v>0</v>
+        <f t="shared" si="48"/>
+        <v>1</v>
       </c>
       <c r="J58" s="3">
-        <f>J11</f>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="K58" s="3" t="str">
-        <f>K11</f>
+        <f t="shared" si="48"/>
         <v>.</v>
       </c>
       <c r="L58" s="3">
-        <f>L11</f>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="M58" s="3">
-        <f>M11</f>
-        <v>0</v>
+        <f t="shared" si="48"/>
+        <v>1</v>
       </c>
       <c r="N58" s="3">
-        <f>N11</f>
-        <v>0</v>
+        <f t="shared" si="48"/>
+        <v>1</v>
       </c>
       <c r="O58" s="3">
-        <f>O11</f>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="P58" s="3" t="str">
-        <f>P11</f>
+        <f t="shared" si="48"/>
         <v>.</v>
       </c>
       <c r="Q58" s="3">
-        <f>Q11</f>
-        <v>0</v>
+        <f t="shared" si="48"/>
+        <v>1</v>
       </c>
       <c r="R58" s="3">
-        <f>R11</f>
-        <v>1</v>
+        <f t="shared" si="48"/>
+        <v>0</v>
       </c>
       <c r="S58" s="3">
-        <f>S11</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="T58" s="3">
-        <f>T11</f>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="U58" s="3" t="str">
-        <f>U11</f>
+        <f t="shared" si="48"/>
         <v>.</v>
       </c>
       <c r="V58" s="3">
-        <f>V11</f>
-        <v>0</v>
+        <f t="shared" si="48"/>
+        <v>1</v>
       </c>
       <c r="W58" s="3">
-        <f>W11</f>
-        <v>1</v>
+        <f t="shared" si="48"/>
+        <v>0</v>
       </c>
       <c r="X58" s="3">
-        <f>X11</f>
-        <v>1</v>
+        <f t="shared" si="48"/>
+        <v>0</v>
       </c>
       <c r="Y58" s="3">
-        <f>Y11</f>
-        <v>1</v>
-      </c>
-      <c r="Z58" s="12"/>
-      <c r="AA58" s="12"/>
-      <c r="AC58" s="12"/>
+        <f t="shared" si="48"/>
+        <v>1</v>
+      </c>
+      <c r="Z58" s="11"/>
+      <c r="AA58" s="11"/>
+      <c r="AC58" s="11"/>
       <c r="AD58" t="s">
         <v>70</v>
       </c>
       <c r="AE58">
         <f>C11</f>
-        <v>-26281</v>
-      </c>
-      <c r="AF58" s="9" t="str">
+        <v>-16487</v>
+      </c>
+      <c r="AF58" s="14" t="str">
         <f>IF(W63=0,"Получен верный результат","Результат ошибочен из-за переполнения формат")</f>
         <v>Результат ошибочен из-за переполнения формат</v>
       </c>
-      <c r="AG58" s="9"/>
+      <c r="AG58" s="14"/>
     </row>
     <row r="59" spans="5:33">
       <c r="E59" t="s">
@@ -4218,84 +4186,84 @@
         <v>60</v>
       </c>
       <c r="G59" s="4">
-        <f>G12</f>
+        <f t="shared" ref="G59:Y59" si="49">G12</f>
         <v>1</v>
       </c>
       <c r="H59" s="4">
-        <f>H12</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="I59" s="4">
-        <f>I12</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="J59" s="4">
-        <f>J12</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="K59" s="4" t="str">
-        <f>K12</f>
+        <f t="shared" si="49"/>
         <v>.</v>
       </c>
       <c r="L59" s="4">
-        <f>L12</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="M59" s="4">
-        <f>M12</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="N59" s="4">
-        <f>N12</f>
-        <v>1</v>
+        <f t="shared" si="49"/>
+        <v>0</v>
       </c>
       <c r="O59" s="4">
-        <f>O12</f>
-        <v>1</v>
+        <f t="shared" si="49"/>
+        <v>0</v>
       </c>
       <c r="P59" s="4" t="str">
-        <f>P12</f>
+        <f t="shared" si="49"/>
         <v>.</v>
       </c>
       <c r="Q59" s="4">
-        <f>Q12</f>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="R59" s="4">
-        <f>R12</f>
-        <v>0</v>
+        <f t="shared" si="49"/>
+        <v>1</v>
       </c>
       <c r="S59" s="4">
-        <f>S12</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="T59" s="4">
-        <f>T12</f>
-        <v>1</v>
+        <f t="shared" si="49"/>
+        <v>0</v>
       </c>
       <c r="U59" s="4" t="str">
-        <f>U12</f>
+        <f t="shared" si="49"/>
         <v>.</v>
       </c>
       <c r="V59" s="4">
-        <f>V12</f>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="W59" s="4">
-        <f>W12</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="X59" s="4">
-        <f>X12</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Y59" s="4">
-        <f>Y12</f>
-        <v>0</v>
-      </c>
-      <c r="Z59" s="12"/>
-      <c r="AA59" s="12"/>
-      <c r="AC59" s="12" t="s">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="Z59" s="11"/>
+      <c r="AA59" s="11"/>
+      <c r="AC59" s="11" t="s">
         <v>45</v>
       </c>
       <c r="AD59" t="s">
@@ -4303,10 +4271,10 @@
       </c>
       <c r="AE59">
         <f>C12</f>
-        <v>-31848</v>
-      </c>
-      <c r="AF59" s="9"/>
-      <c r="AG59" s="9"/>
+        <v>-32568</v>
+      </c>
+      <c r="AF59" s="14"/>
+      <c r="AG59" s="14"/>
     </row>
     <row r="60" spans="5:33">
       <c r="G60" s="4" t="s">
@@ -4366,51 +4334,51 @@
       <c r="Y60" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="Z60" s="12"/>
-      <c r="AA60" s="12"/>
-      <c r="AC60" s="12"/>
+      <c r="Z60" s="11"/>
+      <c r="AA60" s="11"/>
+      <c r="AC60" s="11"/>
       <c r="AD60" s="2"/>
       <c r="AE60" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AF60" s="9"/>
-      <c r="AG60" s="9"/>
+      <c r="AF60" s="14"/>
+      <c r="AG60" s="14"/>
     </row>
     <row r="61" spans="5:33">
       <c r="G61" s="3">
-        <f t="shared" ref="G61:J61" si="32">MOD(SUM(G57:G59),2)</f>
+        <f t="shared" ref="G61:J61" si="50">MOD(SUM(G57:G59),2)</f>
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <f t="shared" si="32"/>
-        <v>0</v>
+        <f t="shared" si="50"/>
+        <v>1</v>
       </c>
       <c r="I61" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <f t="shared" si="32"/>
-        <v>1</v>
+        <f t="shared" si="50"/>
+        <v>0</v>
       </c>
       <c r="K61" s="3" t="str">
         <f>K59</f>
         <v>.</v>
       </c>
       <c r="L61" s="3">
-        <f t="shared" ref="L61:O61" si="33">MOD(SUM(L57:L59),2)</f>
-        <v>1</v>
+        <f t="shared" ref="L61:O61" si="51">MOD(SUM(L57:L59),2)</f>
+        <v>0</v>
       </c>
       <c r="M61" s="3">
-        <f t="shared" si="33"/>
-        <v>1</v>
+        <f t="shared" si="51"/>
+        <v>0</v>
       </c>
       <c r="N61" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="O61" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="P61" s="3" t="str">
@@ -4418,19 +4386,19 @@
         <v>.</v>
       </c>
       <c r="Q61" s="3">
-        <f t="shared" ref="Q61:T61" si="34">MOD(SUM(Q57:Q59),2)</f>
-        <v>1</v>
+        <f t="shared" ref="Q61:T61" si="52">MOD(SUM(Q57:Q59),2)</f>
+        <v>0</v>
       </c>
       <c r="R61" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="S61" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="T61" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="U61" s="3" t="str">
@@ -4438,35 +4406,35 @@
         <v>.</v>
       </c>
       <c r="V61" s="3">
-        <f t="shared" ref="V61:X61" si="35">MOD(SUM(V57:V59),2)</f>
-        <v>1</v>
+        <f t="shared" ref="V61:X61" si="53">MOD(SUM(V57:V59),2)</f>
+        <v>0</v>
       </c>
       <c r="W61" s="3">
-        <f t="shared" si="35"/>
-        <v>1</v>
+        <f t="shared" si="53"/>
+        <v>0</v>
       </c>
       <c r="X61" s="3">
-        <f t="shared" si="35"/>
-        <v>1</v>
+        <f t="shared" si="53"/>
+        <v>0</v>
       </c>
       <c r="Y61" s="3">
         <f>MOD(SUM(Y57:Y59),2)</f>
         <v>1</v>
       </c>
-      <c r="Z61" s="12" t="s">
+      <c r="Z61" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="AA61" s="12">
-        <f t="shared" si="12"/>
-        <v>7407</v>
-      </c>
-      <c r="AC61" s="12"/>
+      <c r="AA61" s="11">
+        <f t="shared" si="28"/>
+        <v>16481</v>
+      </c>
+      <c r="AC61" s="11"/>
       <c r="AE61">
         <f>AE58+AE59</f>
-        <v>-58129</v>
-      </c>
-      <c r="AF61" s="9"/>
-      <c r="AG61" s="9"/>
+        <v>-49055</v>
+      </c>
+      <c r="AF61" s="14"/>
+      <c r="AG61" s="14"/>
     </row>
     <row r="62" spans="5:33">
       <c r="G62" s="3"/>
@@ -4488,9 +4456,9 @@
       <c r="W62" s="3"/>
       <c r="X62" s="3"/>
       <c r="Y62" s="3"/>
-      <c r="Z62" s="12"/>
-      <c r="AA62" s="12"/>
-      <c r="AC62" s="12"/>
+      <c r="Z62" s="11"/>
+      <c r="AA62" s="11"/>
+      <c r="AC62" s="11"/>
     </row>
     <row r="63" spans="5:33">
       <c r="G63" s="3" t="s">
@@ -4542,9 +4510,9 @@
       </c>
       <c r="X63" s="3"/>
       <c r="Y63" s="3"/>
-      <c r="Z63" s="12"/>
-      <c r="AA63" s="12"/>
-      <c r="AC63" s="12"/>
+      <c r="Z63" s="11"/>
+      <c r="AA63" s="11"/>
+      <c r="AC63" s="11"/>
     </row>
     <row r="64" spans="5:33">
       <c r="G64" s="3"/>
@@ -4566,82 +4534,82 @@
       <c r="W64" s="3"/>
       <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
-      <c r="Z64" s="12"/>
-      <c r="AA64" s="12"/>
-      <c r="AC64" s="12"/>
+      <c r="Z64" s="11"/>
+      <c r="AA64" s="11"/>
+      <c r="AC64" s="11"/>
     </row>
     <row r="65" spans="5:33">
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
-      <c r="G65" s="11">
-        <f t="shared" ref="G65:S65" si="36">IF(SUM(H65,H66,H67)&gt;1,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H65" s="11">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="I65" s="11">
-        <f t="shared" si="36"/>
-        <v>1</v>
-      </c>
-      <c r="J65" s="11">
+      <c r="G65" s="10">
+        <f t="shared" ref="G65:S65" si="54">IF(SUM(H65,H66,H67)&gt;1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H65" s="10">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="I65" s="10">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="J65" s="10">
         <f>IF(SUM(L65,L66,L67)&gt;1,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K65" s="11"/>
-      <c r="L65" s="11">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="M65" s="11">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="N65" s="11">
-        <f t="shared" si="36"/>
-        <v>1</v>
-      </c>
-      <c r="O65" s="11">
+        <v>1</v>
+      </c>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="M65" s="10">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="N65" s="10">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="O65" s="10">
         <f>IF(SUM(Q65:Q67)&gt;1,1,0)</f>
         <v>1</v>
       </c>
-      <c r="P65" s="11"/>
-      <c r="Q65" s="11">
-        <f t="shared" si="36"/>
-        <v>1</v>
-      </c>
-      <c r="R65" s="11">
-        <f t="shared" si="36"/>
-        <v>1</v>
-      </c>
-      <c r="S65" s="11">
-        <f t="shared" si="36"/>
-        <v>1</v>
-      </c>
-      <c r="T65" s="11">
+      <c r="P65" s="10"/>
+      <c r="Q65" s="10">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="R65" s="10">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="S65" s="10">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="T65" s="10">
         <f>IF(SUM(V65,V66,V67)&gt;1,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="U65" s="11"/>
-      <c r="V65" s="11">
-        <f t="shared" ref="V65:W65" si="37">IF(SUM(W65,W66,W67)&gt;1,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W65" s="11">
-        <f t="shared" si="37"/>
-        <v>1</v>
-      </c>
-      <c r="X65" s="11">
+        <v>0</v>
+      </c>
+      <c r="U65" s="10"/>
+      <c r="V65" s="10">
+        <f t="shared" ref="V65:W65" si="55">IF(SUM(W65,W66,W67)&gt;1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W65" s="10">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="X65" s="10">
         <f>IF(SUM(Y65,Y66,Y67)&gt;1,1,0)</f>
         <v>1</v>
       </c>
-      <c r="Y65" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z65" s="12"/>
-      <c r="AA65" s="12"/>
-      <c r="AC65" s="12"/>
+      <c r="Y65" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="11"/>
+      <c r="AA65" s="11"/>
+      <c r="AC65" s="11"/>
     </row>
     <row r="66" spans="5:33">
       <c r="E66" s="5" t="s">
@@ -4651,96 +4619,96 @@
         <v>44</v>
       </c>
       <c r="G66" s="6">
-        <f>G4</f>
+        <f t="shared" ref="G66:Y66" si="56">G4</f>
         <v>0</v>
       </c>
       <c r="H66" s="6">
-        <f>H4</f>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="I66" s="6">
-        <f>I4</f>
-        <v>0</v>
+        <f t="shared" si="56"/>
+        <v>1</v>
       </c>
       <c r="J66" s="6">
-        <f>J4</f>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="K66" s="6" t="str">
-        <f>K4</f>
+        <f t="shared" si="56"/>
         <v>.</v>
       </c>
       <c r="L66" s="6">
-        <f>L4</f>
-        <v>0</v>
+        <f t="shared" si="56"/>
+        <v>1</v>
       </c>
       <c r="M66" s="6">
-        <f>M4</f>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="N66" s="6">
-        <f>N4</f>
-        <v>0</v>
+        <f t="shared" si="56"/>
+        <v>1</v>
       </c>
       <c r="O66" s="6">
-        <f>O4</f>
-        <v>1</v>
+        <f t="shared" si="56"/>
+        <v>0</v>
       </c>
       <c r="P66" s="6" t="str">
-        <f>P4</f>
+        <f t="shared" si="56"/>
         <v>.</v>
       </c>
       <c r="Q66" s="6">
-        <f>Q4</f>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="R66" s="6">
-        <f>R4</f>
-        <v>0</v>
+        <f t="shared" si="56"/>
+        <v>1</v>
       </c>
       <c r="S66" s="6">
-        <f>S4</f>
-        <v>1</v>
+        <f t="shared" si="56"/>
+        <v>0</v>
       </c>
       <c r="T66" s="6">
-        <f>T4</f>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="U66" s="6" t="str">
-        <f>U4</f>
+        <f t="shared" si="56"/>
         <v>.</v>
       </c>
       <c r="V66" s="6">
-        <f>V4</f>
-        <v>1</v>
+        <f t="shared" si="56"/>
+        <v>0</v>
       </c>
       <c r="W66" s="6">
-        <f>W4</f>
-        <v>1</v>
+        <f t="shared" si="56"/>
+        <v>0</v>
       </c>
       <c r="X66" s="6">
-        <f>X4</f>
-        <v>1</v>
+        <f t="shared" si="56"/>
+        <v>0</v>
       </c>
       <c r="Y66" s="6">
-        <f>Y4</f>
-        <v>1</v>
-      </c>
-      <c r="Z66" s="12"/>
-      <c r="AA66" s="12"/>
-      <c r="AC66" s="12"/>
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+      <c r="Z66" s="11"/>
+      <c r="AA66" s="11"/>
+      <c r="AC66" s="11"/>
       <c r="AD66" t="s">
         <v>66</v>
       </c>
       <c r="AE66">
         <f>C4</f>
-        <v>5567</v>
-      </c>
-      <c r="AF66" s="9" t="str">
+        <v>16081</v>
+      </c>
+      <c r="AF66" s="14" t="str">
         <f>IF(W71=0,"Получен верный результат","Результат ошибочен из-за переполнения формат")</f>
         <v>Получен верный результат</v>
       </c>
-      <c r="AG66" s="9"/>
+      <c r="AG66" s="14"/>
     </row>
     <row r="67" spans="5:33">
       <c r="E67" s="5" t="s">
@@ -4750,84 +4718,84 @@
         <v>53</v>
       </c>
       <c r="G67" s="6">
-        <f>G11</f>
+        <f t="shared" ref="G67:Y67" si="57">G11</f>
         <v>1</v>
       </c>
       <c r="H67" s="6">
-        <f>H11</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="I67" s="6">
-        <f>I11</f>
-        <v>0</v>
+        <f t="shared" si="57"/>
+        <v>1</v>
       </c>
       <c r="J67" s="6">
-        <f>J11</f>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="K67" s="6" t="str">
-        <f>K11</f>
+        <f t="shared" si="57"/>
         <v>.</v>
       </c>
       <c r="L67" s="6">
-        <f>L11</f>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="M67" s="6">
-        <f>M11</f>
-        <v>0</v>
+        <f t="shared" si="57"/>
+        <v>1</v>
       </c>
       <c r="N67" s="6">
-        <f>N11</f>
-        <v>0</v>
+        <f t="shared" si="57"/>
+        <v>1</v>
       </c>
       <c r="O67" s="6">
-        <f>O11</f>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="P67" s="6" t="str">
-        <f>P11</f>
+        <f t="shared" si="57"/>
         <v>.</v>
       </c>
       <c r="Q67" s="6">
-        <f>Q11</f>
-        <v>0</v>
+        <f t="shared" si="57"/>
+        <v>1</v>
       </c>
       <c r="R67" s="6">
-        <f>R11</f>
-        <v>1</v>
+        <f t="shared" si="57"/>
+        <v>0</v>
       </c>
       <c r="S67" s="6">
-        <f>S11</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="T67" s="6">
-        <f>T11</f>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="U67" s="6" t="str">
-        <f>U11</f>
+        <f t="shared" si="57"/>
         <v>.</v>
       </c>
       <c r="V67" s="6">
-        <f>V11</f>
-        <v>0</v>
+        <f t="shared" si="57"/>
+        <v>1</v>
       </c>
       <c r="W67" s="6">
-        <f>W11</f>
-        <v>1</v>
+        <f t="shared" si="57"/>
+        <v>0</v>
       </c>
       <c r="X67" s="6">
-        <f>X11</f>
-        <v>1</v>
+        <f t="shared" si="57"/>
+        <v>0</v>
       </c>
       <c r="Y67" s="6">
-        <f>Y11</f>
-        <v>1</v>
-      </c>
-      <c r="Z67" s="12"/>
-      <c r="AA67" s="12"/>
-      <c r="AC67" s="12" t="s">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+      <c r="Z67" s="11"/>
+      <c r="AA67" s="11"/>
+      <c r="AC67" s="11" t="s">
         <v>45</v>
       </c>
       <c r="AD67" t="s">
@@ -4835,10 +4803,10 @@
       </c>
       <c r="AE67">
         <f>C11</f>
-        <v>-26281</v>
-      </c>
-      <c r="AF67" s="9"/>
-      <c r="AG67" s="9"/>
+        <v>-16487</v>
+      </c>
+      <c r="AF67" s="14"/>
+      <c r="AG67" s="14"/>
     </row>
     <row r="68" spans="5:33">
       <c r="E68" s="5"/>
@@ -4900,106 +4868,106 @@
       <c r="Y68" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="Z68" s="12"/>
-      <c r="AA68" s="12"/>
-      <c r="AC68" s="12"/>
+      <c r="Z68" s="11"/>
+      <c r="AA68" s="11"/>
+      <c r="AC68" s="11"/>
       <c r="AD68" s="2"/>
       <c r="AE68" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AF68" s="9"/>
-      <c r="AG68" s="9"/>
+      <c r="AF68" s="14"/>
+      <c r="AG68" s="14"/>
     </row>
     <row r="69" spans="5:33">
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
       <c r="G69" s="6">
-        <f t="shared" ref="G69:X69" si="38">MOD(SUM(G65:G67),2)</f>
+        <f t="shared" ref="G69:X69" si="58">MOD(SUM(G65:G67),2)</f>
         <v>1</v>
       </c>
       <c r="H69" s="6">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <f t="shared" si="58"/>
+        <v>1</v>
       </c>
       <c r="I69" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="J69" s="6">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <f t="shared" si="58"/>
+        <v>1</v>
       </c>
       <c r="K69" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L69" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="M69" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="N69" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="O69" s="6">
-        <f t="shared" si="38"/>
-        <v>1</v>
+        <f t="shared" si="58"/>
+        <v>0</v>
       </c>
       <c r="P69" s="6" t="s">
         <v>25</v>
       </c>
       <c r="Q69" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="R69" s="6">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <f t="shared" si="58"/>
+        <v>1</v>
       </c>
       <c r="S69" s="6">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <f t="shared" si="58"/>
+        <v>1</v>
       </c>
       <c r="T69" s="6">
-        <f t="shared" si="38"/>
-        <v>1</v>
+        <f t="shared" si="58"/>
+        <v>0</v>
       </c>
       <c r="U69" s="6" t="s">
         <v>25</v>
       </c>
       <c r="V69" s="6">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <f t="shared" si="58"/>
+        <v>1</v>
       </c>
       <c r="W69" s="6">
-        <f t="shared" si="38"/>
-        <v>1</v>
+        <f t="shared" si="58"/>
+        <v>0</v>
       </c>
       <c r="X69" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="Y69" s="6">
         <f>MOD(SUM(Y65:Y67),2)</f>
         <v>0</v>
       </c>
-      <c r="Z69" s="12" t="s">
+      <c r="Z69" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="AA69" s="12">
+      <c r="AA69" s="11">
         <f>IF(G69=0,Y69+X69*2+W69*4+V69*8+T69*16+S69*32+R69*64+Q69*128+O69*256+N69*512+M69*1024+L69*2048+J69*4096+I69*8192+H69*16384,(MOD(Y69+1,2)+MOD(X69+1,2)*2+MOD(W69+1,2)*4+MOD(V69+1,2)*8+MOD(T69+1,2)*16+MOD(S69+1,2)*32+MOD(R69+1,2)*64+MOD(Q69+1,2)*128+MOD(O69+1,2)*256+MOD(N69+1,2)*512+MOD(M69+1,2)*1024+MOD(L69+1,2)*2048+MOD(J69+1,2)*4096+MOD(I69+1,2)*8192+MOD(H69+1,2)*16384)*-1-1)</f>
-        <v>-20714</v>
-      </c>
-      <c r="AC69" s="12"/>
+        <v>-406</v>
+      </c>
+      <c r="AC69" s="11"/>
       <c r="AE69">
         <f>AE66+AE67</f>
-        <v>-20714</v>
-      </c>
-      <c r="AF69" s="9"/>
-      <c r="AG69" s="9"/>
+        <v>-406</v>
+      </c>
+      <c r="AF69" s="14"/>
+      <c r="AG69" s="14"/>
     </row>
     <row r="70" spans="5:33">
       <c r="E70" s="5"/>
@@ -5023,9 +4991,9 @@
       <c r="W70" s="6"/>
       <c r="X70" s="6"/>
       <c r="Y70" s="6"/>
-      <c r="Z70" s="12"/>
-      <c r="AA70" s="12"/>
-      <c r="AC70" s="12"/>
+      <c r="Z70" s="11"/>
+      <c r="AA70" s="11"/>
+      <c r="AC70" s="11"/>
     </row>
     <row r="71" spans="5:33">
       <c r="E71" s="5"/>
@@ -5051,7 +5019,7 @@
       </c>
       <c r="N71" s="6">
         <f>V65</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O71" s="6"/>
       <c r="P71" s="6" t="s">
@@ -5079,87 +5047,87 @@
       </c>
       <c r="X71" s="6"/>
       <c r="Y71" s="6"/>
-      <c r="Z71" s="12"/>
-      <c r="AA71" s="12"/>
-      <c r="AC71" s="12"/>
+      <c r="Z71" s="11"/>
+      <c r="AA71" s="11"/>
+      <c r="AC71" s="11"/>
     </row>
     <row r="72" spans="5:33">
-      <c r="Z72" s="12"/>
-      <c r="AA72" s="12"/>
-      <c r="AC72" s="12"/>
+      <c r="Z72" s="11"/>
+      <c r="AA72" s="11"/>
+      <c r="AC72" s="11"/>
     </row>
     <row r="73" spans="5:33">
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
-      <c r="G73" s="11">
-        <f t="shared" ref="G73:W73" si="39">IF(SUM(H73,H74,H75)&gt;1,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H73" s="11">
-        <f t="shared" si="39"/>
-        <v>1</v>
-      </c>
-      <c r="I73" s="11">
-        <f t="shared" si="39"/>
-        <v>1</v>
-      </c>
-      <c r="J73" s="11">
+      <c r="G73" s="10">
+        <f t="shared" ref="G73:W73" si="59">IF(SUM(H73,H74,H75)&gt;1,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H73" s="10">
+        <f t="shared" si="59"/>
+        <v>1</v>
+      </c>
+      <c r="I73" s="10">
+        <f t="shared" si="59"/>
+        <v>1</v>
+      </c>
+      <c r="J73" s="10">
         <f>IF(SUM(L73,L74,L75)&gt;1,1,0)</f>
         <v>1</v>
       </c>
-      <c r="K73" s="11"/>
-      <c r="L73" s="11">
-        <f t="shared" si="39"/>
-        <v>1</v>
-      </c>
-      <c r="M73" s="11">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="N73" s="11">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="O73" s="11">
+      <c r="K73" s="10"/>
+      <c r="L73" s="10">
+        <f t="shared" si="59"/>
+        <v>1</v>
+      </c>
+      <c r="M73" s="10">
+        <f t="shared" si="59"/>
+        <v>1</v>
+      </c>
+      <c r="N73" s="10">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="O73" s="10">
         <f>IF(SUM(Q73,Q74,Q75)&gt;1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="P73" s="11"/>
-      <c r="Q73" s="11">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="R73" s="11">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="S73" s="11">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="T73" s="11">
+      <c r="P73" s="10"/>
+      <c r="Q73" s="10">
+        <f t="shared" si="59"/>
+        <v>1</v>
+      </c>
+      <c r="R73" s="10">
+        <f t="shared" si="59"/>
+        <v>1</v>
+      </c>
+      <c r="S73" s="10">
+        <f t="shared" si="59"/>
+        <v>1</v>
+      </c>
+      <c r="T73" s="10">
         <f>IF(SUM(V73,V74,V75)&gt;1,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U73" s="11"/>
-      <c r="V73" s="11">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="W73" s="11">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="X73" s="11">
+        <v>1</v>
+      </c>
+      <c r="U73" s="10"/>
+      <c r="V73" s="10">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="W73" s="10">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="X73" s="10">
         <f>IF(SUM(Y73,Y74,Y75)&gt;1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="Y73" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z73" s="12"/>
-      <c r="AA73" s="12"/>
-      <c r="AC73" s="12"/>
+      <c r="Y73" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="11"/>
+      <c r="AA73" s="11"/>
+      <c r="AC73" s="11"/>
     </row>
     <row r="74" spans="5:33">
       <c r="E74" s="5" t="s">
@@ -5169,96 +5137,96 @@
         <v>63</v>
       </c>
       <c r="G74" s="6">
-        <f>G14</f>
+        <f t="shared" ref="G74:Y74" si="60">G14</f>
         <v>1</v>
       </c>
       <c r="H74" s="6">
-        <f>H14</f>
-        <v>0</v>
+        <f t="shared" si="60"/>
+        <v>1</v>
       </c>
       <c r="I74" s="6">
-        <f>I14</f>
+        <f t="shared" si="60"/>
         <v>1</v>
       </c>
       <c r="J74" s="6">
-        <f>J14</f>
-        <v>0</v>
+        <f t="shared" si="60"/>
+        <v>1</v>
       </c>
       <c r="K74" s="6" t="str">
-        <f>K14</f>
+        <f t="shared" si="60"/>
         <v>.</v>
       </c>
       <c r="L74" s="6">
-        <f>L14</f>
+        <f t="shared" si="60"/>
         <v>1</v>
       </c>
       <c r="M74" s="6">
-        <f>M14</f>
+        <f t="shared" si="60"/>
         <v>1</v>
       </c>
       <c r="N74" s="6">
-        <f>N14</f>
+        <f t="shared" si="60"/>
         <v>1</v>
       </c>
       <c r="O74" s="6">
-        <f>O14</f>
-        <v>1</v>
+        <f t="shared" si="60"/>
+        <v>0</v>
       </c>
       <c r="P74" s="6" t="str">
-        <f>P14</f>
+        <f t="shared" si="60"/>
         <v>.</v>
       </c>
       <c r="Q74" s="6">
-        <f>Q14</f>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="R74" s="6">
-        <f>R14</f>
-        <v>0</v>
+        <f t="shared" si="60"/>
+        <v>1</v>
       </c>
       <c r="S74" s="6">
-        <f>S14</f>
-        <v>0</v>
+        <f t="shared" si="60"/>
+        <v>1</v>
       </c>
       <c r="T74" s="6">
-        <f>T14</f>
-        <v>1</v>
+        <f t="shared" si="60"/>
+        <v>0</v>
       </c>
       <c r="U74" s="6" t="str">
-        <f>U14</f>
+        <f t="shared" si="60"/>
         <v>.</v>
       </c>
       <c r="V74" s="6">
-        <f>V14</f>
-        <v>0</v>
+        <f t="shared" si="60"/>
+        <v>1</v>
       </c>
       <c r="W74" s="6">
-        <f>W14</f>
-        <v>1</v>
+        <f t="shared" si="60"/>
+        <v>0</v>
       </c>
       <c r="X74" s="6">
-        <f>X14</f>
+        <f t="shared" si="60"/>
         <v>1</v>
       </c>
       <c r="Y74" s="6">
-        <f>Y14</f>
-        <v>0</v>
-      </c>
-      <c r="Z74" s="12"/>
-      <c r="AA74" s="12"/>
-      <c r="AC74" s="12"/>
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="Z74" s="11"/>
+      <c r="AA74" s="11"/>
+      <c r="AC74" s="11"/>
       <c r="AD74" t="s">
         <v>72</v>
       </c>
       <c r="AE74">
         <f>C14</f>
-        <v>-20714</v>
-      </c>
-      <c r="AF74" s="9" t="str">
+        <v>-406</v>
+      </c>
+      <c r="AF74" s="14" t="str">
         <f>IF(W79=0,"Получен верный результат","Результат ошибочен из-за переполнения формат")</f>
         <v>Получен верный результат</v>
       </c>
-      <c r="AG74" s="9"/>
+      <c r="AG74" s="14"/>
     </row>
     <row r="75" spans="5:33">
       <c r="E75" s="5" t="s">
@@ -5268,84 +5236,84 @@
         <v>49</v>
       </c>
       <c r="G75" s="6">
-        <f>G6</f>
+        <f t="shared" ref="G75:Y75" si="61">G6</f>
         <v>0</v>
       </c>
       <c r="H75" s="6">
-        <f>H6</f>
+        <f t="shared" si="61"/>
         <v>1</v>
       </c>
       <c r="I75" s="6">
-        <f>I6</f>
+        <f t="shared" si="61"/>
         <v>1</v>
       </c>
       <c r="J75" s="6">
-        <f>J6</f>
+        <f t="shared" si="61"/>
         <v>1</v>
       </c>
       <c r="K75" s="6" t="str">
-        <f>K6</f>
+        <f t="shared" si="61"/>
         <v>.</v>
       </c>
       <c r="L75" s="6">
-        <f>L6</f>
+        <f t="shared" si="61"/>
         <v>1</v>
       </c>
       <c r="M75" s="6">
-        <f>M6</f>
+        <f t="shared" si="61"/>
         <v>1</v>
       </c>
       <c r="N75" s="6">
-        <f>N6</f>
-        <v>0</v>
+        <f t="shared" si="61"/>
+        <v>1</v>
       </c>
       <c r="O75" s="6">
-        <f>O6</f>
-        <v>0</v>
+        <f t="shared" si="61"/>
+        <v>1</v>
       </c>
       <c r="P75" s="6" t="str">
-        <f>P6</f>
+        <f t="shared" si="61"/>
         <v>.</v>
       </c>
       <c r="Q75" s="6">
-        <f>Q6</f>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="R75" s="6">
-        <f>R6</f>
-        <v>1</v>
+        <f t="shared" si="61"/>
+        <v>0</v>
       </c>
       <c r="S75" s="6">
-        <f>S6</f>
+        <f t="shared" si="61"/>
         <v>1</v>
       </c>
       <c r="T75" s="6">
-        <f>T6</f>
-        <v>0</v>
+        <f t="shared" si="61"/>
+        <v>1</v>
       </c>
       <c r="U75" s="6" t="str">
-        <f>U6</f>
+        <f t="shared" si="61"/>
         <v>.</v>
       </c>
       <c r="V75" s="6">
-        <f>V6</f>
+        <f t="shared" si="61"/>
         <v>1</v>
       </c>
       <c r="W75" s="6">
-        <f>W6</f>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="X75" s="6">
-        <f>X6</f>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="Y75" s="6">
-        <f>Y6</f>
-        <v>0</v>
-      </c>
-      <c r="Z75" s="12"/>
-      <c r="AA75" s="12"/>
-      <c r="AC75" s="12" t="s">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="Z75" s="11"/>
+      <c r="AA75" s="11"/>
+      <c r="AC75" s="11" t="s">
         <v>45</v>
       </c>
       <c r="AD75" t="s">
@@ -5353,10 +5321,10 @@
       </c>
       <c r="AE75">
         <f>C6</f>
-        <v>31848</v>
-      </c>
-      <c r="AF75" s="9"/>
-      <c r="AG75" s="9"/>
+        <v>32568</v>
+      </c>
+      <c r="AF75" s="14"/>
+      <c r="AG75" s="14"/>
     </row>
     <row r="76" spans="5:33">
       <c r="E76" s="5"/>
@@ -5418,109 +5386,109 @@
       <c r="Y76" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="Z76" s="12"/>
-      <c r="AA76" s="12"/>
-      <c r="AC76" s="12"/>
+      <c r="Z76" s="11"/>
+      <c r="AA76" s="11"/>
+      <c r="AC76" s="11"/>
       <c r="AD76" s="2"/>
       <c r="AE76" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AF76" s="9"/>
-      <c r="AG76" s="9"/>
+      <c r="AF76" s="14"/>
+      <c r="AG76" s="14"/>
     </row>
     <row r="77" spans="5:33">
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
       <c r="G77" s="6">
-        <f t="shared" ref="G77:X77" si="40">MOD(SUM(G73:G75),2)</f>
+        <f t="shared" ref="G77:X77" si="62">MOD(SUM(G73:G75),2)</f>
         <v>0</v>
       </c>
       <c r="H77" s="6">
-        <f t="shared" si="40"/>
-        <v>0</v>
+        <f t="shared" si="62"/>
+        <v>1</v>
       </c>
       <c r="I77" s="6">
-        <f t="shared" si="40"/>
+        <f t="shared" si="62"/>
         <v>1</v>
       </c>
       <c r="J77" s="6">
-        <f t="shared" si="40"/>
-        <v>0</v>
+        <f t="shared" si="62"/>
+        <v>1</v>
       </c>
       <c r="K77" s="6">
-        <f t="shared" si="40"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="L77" s="6">
-        <f t="shared" si="40"/>
+        <f t="shared" si="62"/>
         <v>1</v>
       </c>
       <c r="M77" s="6">
-        <f t="shared" si="40"/>
-        <v>0</v>
+        <f t="shared" si="62"/>
+        <v>1</v>
       </c>
       <c r="N77" s="6">
-        <f t="shared" si="40"/>
-        <v>1</v>
+        <f t="shared" si="62"/>
+        <v>0</v>
       </c>
       <c r="O77" s="6">
-        <f t="shared" si="40"/>
+        <f t="shared" si="62"/>
         <v>1</v>
       </c>
       <c r="P77" s="6">
-        <f t="shared" si="40"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="Q77" s="6">
-        <f t="shared" si="40"/>
-        <v>0</v>
+        <f t="shared" si="62"/>
+        <v>1</v>
       </c>
       <c r="R77" s="6">
-        <f t="shared" si="40"/>
-        <v>1</v>
+        <f t="shared" si="62"/>
+        <v>0</v>
       </c>
       <c r="S77" s="6">
-        <f t="shared" si="40"/>
+        <f t="shared" si="62"/>
         <v>1</v>
       </c>
       <c r="T77" s="6">
-        <f t="shared" si="40"/>
-        <v>1</v>
+        <f t="shared" si="62"/>
+        <v>0</v>
       </c>
       <c r="U77" s="6">
-        <f t="shared" si="40"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="V77" s="6">
-        <f t="shared" si="40"/>
-        <v>1</v>
+        <f t="shared" si="62"/>
+        <v>0</v>
       </c>
       <c r="W77" s="6">
-        <f t="shared" si="40"/>
-        <v>1</v>
+        <f t="shared" si="62"/>
+        <v>0</v>
       </c>
       <c r="X77" s="6">
-        <f t="shared" si="40"/>
+        <f t="shared" si="62"/>
         <v>1</v>
       </c>
       <c r="Y77" s="6">
         <f>MOD(SUM(Y73:Y75),2)</f>
         <v>0</v>
       </c>
-      <c r="Z77" s="12" t="s">
+      <c r="Z77" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="AA77" s="12">
-        <f t="shared" si="12"/>
-        <v>11134</v>
-      </c>
-      <c r="AC77" s="12"/>
+      <c r="AA77" s="11">
+        <f t="shared" si="28"/>
+        <v>32162</v>
+      </c>
+      <c r="AC77" s="11"/>
       <c r="AE77">
         <f>AE74+AE75</f>
-        <v>11134</v>
-      </c>
-      <c r="AF77" s="9"/>
-      <c r="AG77" s="9"/>
+        <v>32162</v>
+      </c>
+      <c r="AF77" s="14"/>
+      <c r="AG77" s="14"/>
     </row>
     <row r="78" spans="5:33">
       <c r="E78" s="5"/>
@@ -5544,9 +5512,9 @@
       <c r="W78" s="6"/>
       <c r="X78" s="6"/>
       <c r="Y78" s="6"/>
-      <c r="Z78" s="12"/>
-      <c r="AA78" s="12"/>
-      <c r="AC78" s="12"/>
+      <c r="Z78" s="11"/>
+      <c r="AA78" s="11"/>
+      <c r="AC78" s="11"/>
     </row>
     <row r="79" spans="5:33">
       <c r="E79" s="5"/>
@@ -5594,15 +5562,15 @@
       </c>
       <c r="X79" s="6"/>
       <c r="Y79" s="6"/>
-      <c r="Z79" s="12"/>
-      <c r="AA79" s="12"/>
-      <c r="AC79" s="12"/>
+      <c r="Z79" s="11"/>
+      <c r="AA79" s="11"/>
+      <c r="AC79" s="11"/>
     </row>
     <row r="80" spans="5:33">
-      <c r="AC80" s="12"/>
+      <c r="AC80" s="11"/>
     </row>
     <row r="81" spans="29:29">
-      <c r="AC81" s="12"/>
+      <c r="AC81" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5614,19 +5582,21 @@
     <mergeCell ref="AF50:AG53"/>
     <mergeCell ref="AF58:AG61"/>
   </mergeCells>
-  <conditionalFormatting sqref="G4:Y7">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",G4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH("1",G4)))</formula>
+  <conditionalFormatting sqref="G4:Y8">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF00B050"/>
+        <color theme="4"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;L&amp;"System Font,обычный"&amp;10&amp;K000000Андреев Владислав
-&amp;C&amp;"System Font,обычный"&amp;10&amp;K000000Вариант 20
+&amp;C&amp;"System Font,обычный"&amp;10&amp;K000000Вариант 10
 &amp;RОсновное задание
 </oddHeader>
     <oddFooter xml:space="preserve">&amp;C&amp;"System Font,обычный"&amp;10 30&amp;K000000 ноября 2022 г. 19:50
